--- a/市場_2025改修/基本設計_2025/26_画面設計書(口座データ).xlsx
+++ b/市場_2025改修/基本設計_2025/26_画面設計書(口座データ).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\Git001\200_2025改修\基本設計_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ts\Documents\サントク\202205姫路市VBA\200_2025改修\v0\基本設計_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69481686-086B-4F80-AD02-088BE11D8D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA3F6DB-1959-492F-BA50-96BD881954BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -190,10 +190,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>施設使用料・償還金等料金及び納付書作成システム</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>プロジェクト番号</t>
     <rPh sb="6" eb="8">
       <t>バンゴウ</t>
@@ -402,6 +398,11 @@
     <rPh sb="0" eb="3">
       <t>サクセイビ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>施設使用料・償還金等料金計算及び納付書作成システム
+口座振替データ作成機能構築業務</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -850,7 +851,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -951,6 +952,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -960,20 +976,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -981,29 +1000,32 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1041,26 +1063,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1466,7 +1488,7 @@
   <dimension ref="C1:P23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="C7" sqref="C7:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="22.5" customHeight="1"/>
@@ -1498,50 +1520,50 @@
     </row>
     <row r="6" spans="3:16" ht="22.5" customHeight="1">
       <c r="C6" s="12"/>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
       <c r="N6" s="13"/>
     </row>
     <row r="7" spans="3:16" ht="51" customHeight="1">
-      <c r="C7" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="41"/>
+      <c r="C7" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="38"/>
     </row>
     <row r="8" spans="3:16" ht="39" customHeight="1">
       <c r="C8" s="12"/>
-      <c r="D8" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
+      <c r="D8" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
       <c r="N8" s="13"/>
     </row>
     <row r="9" spans="3:16" ht="22.5" customHeight="1" thickBot="1">
@@ -1561,20 +1583,20 @@
     <row r="10" spans="3:16" ht="22.5" customHeight="1" thickTop="1"/>
     <row r="12" spans="3:16" ht="22.5" customHeight="1">
       <c r="F12" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" s="33"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="36"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="41"/>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
     </row>
     <row r="13" spans="3:16" ht="22.5" customHeight="1">
       <c r="F13" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13" s="33"/>
       <c r="H13" s="28"/>
@@ -1587,52 +1609,52 @@
     </row>
     <row r="14" spans="3:16" ht="22.5" customHeight="1">
       <c r="F14" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14" s="33"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="36"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="41"/>
     </row>
     <row r="15" spans="3:16" ht="22.5" customHeight="1">
       <c r="F15" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G15" s="33"/>
-      <c r="H15" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="36"/>
+      <c r="H15" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="41"/>
     </row>
     <row r="16" spans="3:16" ht="22.5" customHeight="1">
       <c r="F16" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G16" s="33"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="36"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="41"/>
     </row>
     <row r="17" spans="6:16" ht="22.5" customHeight="1">
       <c r="F17" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G17" s="33"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="36"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="41"/>
       <c r="N17" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="6:16" ht="22.5" customHeight="1">
       <c r="N18" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="6:16" ht="22.5" customHeight="1">
@@ -1645,7 +1667,7 @@
       <c r="N22" s="20"/>
       <c r="O22" s="20"/>
       <c r="P22" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="6:16" ht="22.5" customHeight="1">
@@ -1655,12 +1677,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="F14:G14"/>
@@ -1669,6 +1685,12 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:K16"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1697,52 +1719,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="46" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
       <c r="P1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
       <c r="P2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="24"/>
@@ -1768,427 +1790,427 @@
       <c r="A4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43" t="s">
+      <c r="C4" s="49"/>
+      <c r="D4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43" t="s">
+      <c r="E4" s="49"/>
+      <c r="F4" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43" t="s">
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1">
       <c r="A5" s="26">
         <v>1</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1">
       <c r="A6" s="27">
         <v>2</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1">
       <c r="A7" s="27">
         <v>3</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="27">
         <v>4</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1">
       <c r="A9" s="27">
         <v>5</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1">
       <c r="A10" s="27">
         <v>6</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1">
       <c r="A11" s="27">
         <v>7</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1">
       <c r="A12" s="27">
         <v>8</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
     </row>
     <row r="13" spans="1:18" ht="27" customHeight="1">
       <c r="A13" s="27">
         <v>9</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="44"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
     </row>
     <row r="14" spans="1:18" ht="27" customHeight="1">
       <c r="A14" s="27">
         <v>10</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="27">
         <v>11</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="27">
         <v>12</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
     </row>
     <row r="17" spans="1:18" ht="27" customHeight="1">
       <c r="A17" s="27">
         <v>13</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
     </row>
     <row r="18" spans="1:18" ht="27" customHeight="1">
       <c r="A18" s="27">
         <v>14</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
     </row>
     <row r="19" spans="1:18" ht="27" customHeight="1">
       <c r="A19" s="27">
         <v>15</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1">
       <c r="A20" s="27">
         <v>16</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
     </row>
     <row r="21" spans="1:18" ht="27" customHeight="1">
       <c r="A21" s="27">
         <v>17</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
     </row>
     <row r="22" spans="1:18" ht="27" customHeight="1">
       <c r="A22" s="27">
         <v>18</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
     </row>
     <row r="23" spans="1:18" ht="27" customHeight="1"/>
     <row r="24" spans="1:18" ht="27" customHeight="1"/>
@@ -2199,14 +2221,62 @@
     <row r="29" spans="1:18" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="I21:R21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:R22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="D1:O2"/>
+    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="I8:R8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:R6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="I11:R11"/>
+    <mergeCell ref="I12:R12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I9:R9"/>
+    <mergeCell ref="I10:R10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I15:R15"/>
+    <mergeCell ref="I16:R16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I13:R13"/>
+    <mergeCell ref="I14:R14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
     <mergeCell ref="I19:R19"/>
     <mergeCell ref="I20:R20"/>
     <mergeCell ref="B17:C17"/>
@@ -2223,62 +2293,14 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I15:R15"/>
-    <mergeCell ref="I16:R16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I13:R13"/>
-    <mergeCell ref="I14:R14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I11:R11"/>
-    <mergeCell ref="I12:R12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I9:R9"/>
-    <mergeCell ref="I10:R10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I8:R8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="D1:O2"/>
-    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="I21:R21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:R22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -2295,7 +2317,7 @@
   <dimension ref="A1:BF50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AO3" sqref="AO3:BF3"/>
+      <selection activeCell="A3" sqref="A3:AN3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="11.25"/>
@@ -2303,210 +2325,214 @@
     <col min="1" max="16384" width="2.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:58" s="74" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="65" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="66" t="str">
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="75" t="str">
         <f>表紙!C7</f>
-        <v>施設使用料・償還金等料金及び納付書作成システム</v>
-      </c>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="68"/>
-      <c r="AJ1" s="69" t="s">
+        <v>施設使用料・償還金等料金計算及び納付書作成システム
+口座振替データ作成機能構築業務</v>
+      </c>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="69"/>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="69"/>
-      <c r="AO1" s="64" t="s">
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="72"/>
+      <c r="AO1" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="AP1" s="64"/>
-      <c r="AQ1" s="64"/>
-      <c r="AR1" s="64"/>
-      <c r="AS1" s="64"/>
-      <c r="AT1" s="64"/>
-      <c r="AU1" s="64"/>
-      <c r="AV1" s="69" t="s">
+      <c r="AP1" s="73"/>
+      <c r="AQ1" s="73"/>
+      <c r="AR1" s="73"/>
+      <c r="AS1" s="73"/>
+      <c r="AT1" s="73"/>
+      <c r="AU1" s="73"/>
+      <c r="AV1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="69"/>
-      <c r="AX1" s="69"/>
-      <c r="AY1" s="69"/>
-      <c r="AZ1" s="69"/>
-      <c r="BA1" s="64"/>
-      <c r="BB1" s="64"/>
-      <c r="BC1" s="64"/>
-      <c r="BD1" s="64"/>
-      <c r="BE1" s="64"/>
-      <c r="BF1" s="64"/>
+      <c r="AW1" s="72"/>
+      <c r="AX1" s="72"/>
+      <c r="AY1" s="72"/>
+      <c r="AZ1" s="72"/>
+      <c r="BA1" s="73"/>
+      <c r="BB1" s="73"/>
+      <c r="BC1" s="73"/>
+      <c r="BD1" s="73"/>
+      <c r="BE1" s="73"/>
+      <c r="BF1" s="73"/>
     </row>
     <row r="2" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="65" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="67"/>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="69" t="s">
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="53" t="str">
+        <f>表紙!H15</f>
+        <v>口座データ</v>
+      </c>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="69"/>
-      <c r="AL2" s="69"/>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="70">
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="58">
         <v>45748</v>
       </c>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="64"/>
-      <c r="AR2" s="64"/>
-      <c r="AS2" s="64"/>
-      <c r="AT2" s="64"/>
-      <c r="AU2" s="64"/>
-      <c r="AV2" s="69" t="s">
+      <c r="AP2" s="57"/>
+      <c r="AQ2" s="57"/>
+      <c r="AR2" s="57"/>
+      <c r="AS2" s="57"/>
+      <c r="AT2" s="57"/>
+      <c r="AU2" s="57"/>
+      <c r="AV2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="AW2" s="69"/>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="64"/>
-      <c r="BB2" s="64"/>
-      <c r="BC2" s="64"/>
-      <c r="BD2" s="64"/>
-      <c r="BE2" s="64"/>
-      <c r="BF2" s="64"/>
+      <c r="AW2" s="56"/>
+      <c r="AX2" s="56"/>
+      <c r="AY2" s="56"/>
+      <c r="AZ2" s="56"/>
+      <c r="BA2" s="57"/>
+      <c r="BB2" s="57"/>
+      <c r="BC2" s="57"/>
+      <c r="BD2" s="57"/>
+      <c r="BE2" s="57"/>
+      <c r="BF2" s="57"/>
     </row>
     <row r="3" spans="1:58" ht="15" customHeight="1">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="56"/>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="56"/>
-      <c r="AG3" s="56"/>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="56"/>
-      <c r="AK3" s="56"/>
-      <c r="AL3" s="56"/>
-      <c r="AM3" s="56"/>
-      <c r="AN3" s="57"/>
-      <c r="AO3" s="55" t="s">
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="63"/>
+      <c r="AJ3" s="63"/>
+      <c r="AK3" s="63"/>
+      <c r="AL3" s="63"/>
+      <c r="AM3" s="63"/>
+      <c r="AN3" s="64"/>
+      <c r="AO3" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="AP3" s="56"/>
-      <c r="AQ3" s="56"/>
-      <c r="AR3" s="56"/>
-      <c r="AS3" s="56"/>
-      <c r="AT3" s="56"/>
-      <c r="AU3" s="56"/>
-      <c r="AV3" s="56"/>
-      <c r="AW3" s="56"/>
-      <c r="AX3" s="56"/>
-      <c r="AY3" s="56"/>
-      <c r="AZ3" s="56"/>
-      <c r="BA3" s="56"/>
-      <c r="BB3" s="56"/>
-      <c r="BC3" s="56"/>
-      <c r="BD3" s="56"/>
-      <c r="BE3" s="56"/>
-      <c r="BF3" s="57"/>
+      <c r="AP3" s="63"/>
+      <c r="AQ3" s="63"/>
+      <c r="AR3" s="63"/>
+      <c r="AS3" s="63"/>
+      <c r="AT3" s="63"/>
+      <c r="AU3" s="63"/>
+      <c r="AV3" s="63"/>
+      <c r="AW3" s="63"/>
+      <c r="AX3" s="63"/>
+      <c r="AY3" s="63"/>
+      <c r="AZ3" s="63"/>
+      <c r="BA3" s="63"/>
+      <c r="BB3" s="63"/>
+      <c r="BC3" s="63"/>
+      <c r="BD3" s="63"/>
+      <c r="BE3" s="63"/>
+      <c r="BF3" s="64"/>
     </row>
     <row r="4" spans="1:58">
       <c r="A4" s="31"/>
@@ -2517,734 +2543,734 @@
     <row r="5" spans="1:58" ht="11.25" customHeight="1">
       <c r="A5" s="31"/>
       <c r="AN5" s="2"/>
-      <c r="AO5" s="52" t="s">
+      <c r="AO5" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP5" s="42"/>
+      <c r="AQ5" s="42"/>
+      <c r="AR5" s="42"/>
+      <c r="AS5" s="42"/>
+      <c r="AT5" s="42"/>
+      <c r="AU5" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="AP5" s="44"/>
-      <c r="AQ5" s="44"/>
-      <c r="AR5" s="44"/>
-      <c r="AS5" s="44"/>
-      <c r="AT5" s="44"/>
-      <c r="AU5" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="AV5" s="53"/>
-      <c r="AW5" s="53"/>
-      <c r="AX5" s="53"/>
-      <c r="AY5" s="53"/>
-      <c r="AZ5" s="53"/>
-      <c r="BA5" s="53"/>
-      <c r="BB5" s="53"/>
-      <c r="BC5" s="53"/>
-      <c r="BD5" s="53"/>
-      <c r="BE5" s="53"/>
-      <c r="BF5" s="54"/>
+      <c r="AV5" s="60"/>
+      <c r="AW5" s="60"/>
+      <c r="AX5" s="60"/>
+      <c r="AY5" s="60"/>
+      <c r="AZ5" s="60"/>
+      <c r="BA5" s="60"/>
+      <c r="BB5" s="60"/>
+      <c r="BC5" s="60"/>
+      <c r="BD5" s="60"/>
+      <c r="BE5" s="60"/>
+      <c r="BF5" s="61"/>
     </row>
     <row r="6" spans="1:58">
       <c r="A6" s="31"/>
       <c r="AN6" s="2"/>
-      <c r="AO6" s="52"/>
-      <c r="AP6" s="44"/>
-      <c r="AQ6" s="44"/>
-      <c r="AR6" s="44"/>
-      <c r="AS6" s="44"/>
-      <c r="AT6" s="44"/>
-      <c r="AU6" s="53"/>
-      <c r="AV6" s="53"/>
-      <c r="AW6" s="53"/>
-      <c r="AX6" s="53"/>
-      <c r="AY6" s="53"/>
-      <c r="AZ6" s="53"/>
-      <c r="BA6" s="53"/>
-      <c r="BB6" s="53"/>
-      <c r="BC6" s="53"/>
-      <c r="BD6" s="53"/>
-      <c r="BE6" s="53"/>
-      <c r="BF6" s="54"/>
+      <c r="AO6" s="59"/>
+      <c r="AP6" s="42"/>
+      <c r="AQ6" s="42"/>
+      <c r="AR6" s="42"/>
+      <c r="AS6" s="42"/>
+      <c r="AT6" s="42"/>
+      <c r="AU6" s="60"/>
+      <c r="AV6" s="60"/>
+      <c r="AW6" s="60"/>
+      <c r="AX6" s="60"/>
+      <c r="AY6" s="60"/>
+      <c r="AZ6" s="60"/>
+      <c r="BA6" s="60"/>
+      <c r="BB6" s="60"/>
+      <c r="BC6" s="60"/>
+      <c r="BD6" s="60"/>
+      <c r="BE6" s="60"/>
+      <c r="BF6" s="61"/>
     </row>
     <row r="7" spans="1:58">
       <c r="A7" s="31"/>
       <c r="AN7" s="2"/>
-      <c r="AO7" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="AP7" s="44"/>
-      <c r="AQ7" s="44"/>
-      <c r="AR7" s="44"/>
-      <c r="AS7" s="44"/>
-      <c r="AT7" s="44"/>
-      <c r="AU7" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV7" s="53"/>
-      <c r="AW7" s="53"/>
-      <c r="AX7" s="53"/>
-      <c r="AY7" s="53"/>
-      <c r="AZ7" s="53"/>
-      <c r="BA7" s="53"/>
-      <c r="BB7" s="53"/>
-      <c r="BC7" s="53"/>
-      <c r="BD7" s="53"/>
-      <c r="BE7" s="53"/>
-      <c r="BF7" s="54"/>
+      <c r="AO7" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP7" s="42"/>
+      <c r="AQ7" s="42"/>
+      <c r="AR7" s="42"/>
+      <c r="AS7" s="42"/>
+      <c r="AT7" s="42"/>
+      <c r="AU7" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV7" s="60"/>
+      <c r="AW7" s="60"/>
+      <c r="AX7" s="60"/>
+      <c r="AY7" s="60"/>
+      <c r="AZ7" s="60"/>
+      <c r="BA7" s="60"/>
+      <c r="BB7" s="60"/>
+      <c r="BC7" s="60"/>
+      <c r="BD7" s="60"/>
+      <c r="BE7" s="60"/>
+      <c r="BF7" s="61"/>
     </row>
     <row r="8" spans="1:58">
       <c r="A8" s="31"/>
       <c r="AN8" s="2"/>
-      <c r="AO8" s="52"/>
-      <c r="AP8" s="44"/>
-      <c r="AQ8" s="44"/>
-      <c r="AR8" s="44"/>
-      <c r="AS8" s="44"/>
-      <c r="AT8" s="44"/>
-      <c r="AU8" s="53"/>
-      <c r="AV8" s="53"/>
-      <c r="AW8" s="53"/>
-      <c r="AX8" s="53"/>
-      <c r="AY8" s="53"/>
-      <c r="AZ8" s="53"/>
-      <c r="BA8" s="53"/>
-      <c r="BB8" s="53"/>
-      <c r="BC8" s="53"/>
-      <c r="BD8" s="53"/>
-      <c r="BE8" s="53"/>
-      <c r="BF8" s="54"/>
+      <c r="AO8" s="59"/>
+      <c r="AP8" s="42"/>
+      <c r="AQ8" s="42"/>
+      <c r="AR8" s="42"/>
+      <c r="AS8" s="42"/>
+      <c r="AT8" s="42"/>
+      <c r="AU8" s="60"/>
+      <c r="AV8" s="60"/>
+      <c r="AW8" s="60"/>
+      <c r="AX8" s="60"/>
+      <c r="AY8" s="60"/>
+      <c r="AZ8" s="60"/>
+      <c r="BA8" s="60"/>
+      <c r="BB8" s="60"/>
+      <c r="BC8" s="60"/>
+      <c r="BD8" s="60"/>
+      <c r="BE8" s="60"/>
+      <c r="BF8" s="61"/>
     </row>
     <row r="9" spans="1:58">
       <c r="A9" s="31"/>
       <c r="AN9" s="2"/>
-      <c r="AO9" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="AP9" s="44"/>
-      <c r="AQ9" s="44"/>
-      <c r="AR9" s="44"/>
-      <c r="AS9" s="44"/>
-      <c r="AT9" s="44"/>
-      <c r="AU9" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="AV9" s="53"/>
-      <c r="AW9" s="53"/>
-      <c r="AX9" s="53"/>
-      <c r="AY9" s="53"/>
-      <c r="AZ9" s="53"/>
-      <c r="BA9" s="53"/>
-      <c r="BB9" s="53"/>
-      <c r="BC9" s="53"/>
-      <c r="BD9" s="53"/>
-      <c r="BE9" s="53"/>
-      <c r="BF9" s="54"/>
+      <c r="AO9" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP9" s="42"/>
+      <c r="AQ9" s="42"/>
+      <c r="AR9" s="42"/>
+      <c r="AS9" s="42"/>
+      <c r="AT9" s="42"/>
+      <c r="AU9" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV9" s="60"/>
+      <c r="AW9" s="60"/>
+      <c r="AX9" s="60"/>
+      <c r="AY9" s="60"/>
+      <c r="AZ9" s="60"/>
+      <c r="BA9" s="60"/>
+      <c r="BB9" s="60"/>
+      <c r="BC9" s="60"/>
+      <c r="BD9" s="60"/>
+      <c r="BE9" s="60"/>
+      <c r="BF9" s="61"/>
     </row>
     <row r="10" spans="1:58">
       <c r="A10" s="31"/>
       <c r="AN10" s="2"/>
-      <c r="AO10" s="52"/>
-      <c r="AP10" s="44"/>
-      <c r="AQ10" s="44"/>
-      <c r="AR10" s="44"/>
-      <c r="AS10" s="44"/>
-      <c r="AT10" s="44"/>
-      <c r="AU10" s="53"/>
-      <c r="AV10" s="53"/>
-      <c r="AW10" s="53"/>
-      <c r="AX10" s="53"/>
-      <c r="AY10" s="53"/>
-      <c r="AZ10" s="53"/>
-      <c r="BA10" s="53"/>
-      <c r="BB10" s="53"/>
-      <c r="BC10" s="53"/>
-      <c r="BD10" s="53"/>
-      <c r="BE10" s="53"/>
-      <c r="BF10" s="54"/>
+      <c r="AO10" s="59"/>
+      <c r="AP10" s="42"/>
+      <c r="AQ10" s="42"/>
+      <c r="AR10" s="42"/>
+      <c r="AS10" s="42"/>
+      <c r="AT10" s="42"/>
+      <c r="AU10" s="60"/>
+      <c r="AV10" s="60"/>
+      <c r="AW10" s="60"/>
+      <c r="AX10" s="60"/>
+      <c r="AY10" s="60"/>
+      <c r="AZ10" s="60"/>
+      <c r="BA10" s="60"/>
+      <c r="BB10" s="60"/>
+      <c r="BC10" s="60"/>
+      <c r="BD10" s="60"/>
+      <c r="BE10" s="60"/>
+      <c r="BF10" s="61"/>
     </row>
     <row r="11" spans="1:58" ht="16.5" customHeight="1">
       <c r="A11" s="31"/>
       <c r="AN11" s="2"/>
-      <c r="AO11" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP11" s="58"/>
-      <c r="AQ11" s="58"/>
-      <c r="AR11" s="58"/>
-      <c r="AS11" s="58"/>
-      <c r="AT11" s="58"/>
-      <c r="AU11" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="AV11" s="58"/>
-      <c r="AW11" s="58"/>
-      <c r="AX11" s="58"/>
-      <c r="AY11" s="58"/>
-      <c r="AZ11" s="58"/>
-      <c r="BA11" s="58"/>
-      <c r="BB11" s="58"/>
-      <c r="BC11" s="58"/>
-      <c r="BD11" s="58"/>
-      <c r="BE11" s="58"/>
-      <c r="BF11" s="59"/>
+      <c r="AO11" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP11" s="65"/>
+      <c r="AQ11" s="65"/>
+      <c r="AR11" s="65"/>
+      <c r="AS11" s="65"/>
+      <c r="AT11" s="65"/>
+      <c r="AU11" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="AV11" s="65"/>
+      <c r="AW11" s="65"/>
+      <c r="AX11" s="65"/>
+      <c r="AY11" s="65"/>
+      <c r="AZ11" s="65"/>
+      <c r="BA11" s="65"/>
+      <c r="BB11" s="65"/>
+      <c r="BC11" s="65"/>
+      <c r="BD11" s="65"/>
+      <c r="BE11" s="65"/>
+      <c r="BF11" s="66"/>
     </row>
     <row r="12" spans="1:58">
       <c r="A12" s="31"/>
       <c r="AN12" s="2"/>
-      <c r="AO12" s="63"/>
-      <c r="AP12" s="60"/>
-      <c r="AQ12" s="60"/>
-      <c r="AR12" s="60"/>
-      <c r="AS12" s="60"/>
-      <c r="AT12" s="60"/>
-      <c r="AU12" s="60"/>
-      <c r="AV12" s="60"/>
-      <c r="AW12" s="60"/>
-      <c r="AX12" s="60"/>
-      <c r="AY12" s="60"/>
-      <c r="AZ12" s="60"/>
-      <c r="BA12" s="60"/>
-      <c r="BB12" s="60"/>
-      <c r="BC12" s="60"/>
-      <c r="BD12" s="60"/>
-      <c r="BE12" s="60"/>
-      <c r="BF12" s="61"/>
+      <c r="AO12" s="70"/>
+      <c r="AP12" s="67"/>
+      <c r="AQ12" s="67"/>
+      <c r="AR12" s="67"/>
+      <c r="AS12" s="67"/>
+      <c r="AT12" s="67"/>
+      <c r="AU12" s="67"/>
+      <c r="AV12" s="67"/>
+      <c r="AW12" s="67"/>
+      <c r="AX12" s="67"/>
+      <c r="AY12" s="67"/>
+      <c r="AZ12" s="67"/>
+      <c r="BA12" s="67"/>
+      <c r="BB12" s="67"/>
+      <c r="BC12" s="67"/>
+      <c r="BD12" s="67"/>
+      <c r="BE12" s="67"/>
+      <c r="BF12" s="68"/>
     </row>
     <row r="13" spans="1:58">
       <c r="A13" s="31"/>
       <c r="AN13" s="2"/>
-      <c r="AO13" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="AP13" s="44"/>
-      <c r="AQ13" s="44"/>
-      <c r="AR13" s="44"/>
-      <c r="AS13" s="44"/>
-      <c r="AT13" s="44"/>
-      <c r="AU13" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="AV13" s="53"/>
-      <c r="AW13" s="53"/>
-      <c r="AX13" s="53"/>
-      <c r="AY13" s="53"/>
-      <c r="AZ13" s="53"/>
-      <c r="BA13" s="53"/>
-      <c r="BB13" s="53"/>
-      <c r="BC13" s="53"/>
-      <c r="BD13" s="53"/>
-      <c r="BE13" s="53"/>
-      <c r="BF13" s="54"/>
+      <c r="AO13" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP13" s="42"/>
+      <c r="AQ13" s="42"/>
+      <c r="AR13" s="42"/>
+      <c r="AS13" s="42"/>
+      <c r="AT13" s="42"/>
+      <c r="AU13" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV13" s="60"/>
+      <c r="AW13" s="60"/>
+      <c r="AX13" s="60"/>
+      <c r="AY13" s="60"/>
+      <c r="AZ13" s="60"/>
+      <c r="BA13" s="60"/>
+      <c r="BB13" s="60"/>
+      <c r="BC13" s="60"/>
+      <c r="BD13" s="60"/>
+      <c r="BE13" s="60"/>
+      <c r="BF13" s="61"/>
     </row>
     <row r="14" spans="1:58">
       <c r="A14" s="31"/>
       <c r="AN14" s="2"/>
-      <c r="AO14" s="52"/>
-      <c r="AP14" s="44"/>
-      <c r="AQ14" s="44"/>
-      <c r="AR14" s="44"/>
-      <c r="AS14" s="44"/>
-      <c r="AT14" s="44"/>
-      <c r="AU14" s="53"/>
-      <c r="AV14" s="53"/>
-      <c r="AW14" s="53"/>
-      <c r="AX14" s="53"/>
-      <c r="AY14" s="53"/>
-      <c r="AZ14" s="53"/>
-      <c r="BA14" s="53"/>
-      <c r="BB14" s="53"/>
-      <c r="BC14" s="53"/>
-      <c r="BD14" s="53"/>
-      <c r="BE14" s="53"/>
-      <c r="BF14" s="54"/>
+      <c r="AO14" s="59"/>
+      <c r="AP14" s="42"/>
+      <c r="AQ14" s="42"/>
+      <c r="AR14" s="42"/>
+      <c r="AS14" s="42"/>
+      <c r="AT14" s="42"/>
+      <c r="AU14" s="60"/>
+      <c r="AV14" s="60"/>
+      <c r="AW14" s="60"/>
+      <c r="AX14" s="60"/>
+      <c r="AY14" s="60"/>
+      <c r="AZ14" s="60"/>
+      <c r="BA14" s="60"/>
+      <c r="BB14" s="60"/>
+      <c r="BC14" s="60"/>
+      <c r="BD14" s="60"/>
+      <c r="BE14" s="60"/>
+      <c r="BF14" s="61"/>
     </row>
     <row r="15" spans="1:58">
       <c r="A15" s="31"/>
       <c r="AN15" s="2"/>
-      <c r="AO15" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="AP15" s="44"/>
-      <c r="AQ15" s="44"/>
-      <c r="AR15" s="44"/>
-      <c r="AS15" s="44"/>
-      <c r="AT15" s="44"/>
-      <c r="AU15" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="AV15" s="53"/>
-      <c r="AW15" s="53"/>
-      <c r="AX15" s="53"/>
-      <c r="AY15" s="53"/>
-      <c r="AZ15" s="53"/>
-      <c r="BA15" s="53"/>
-      <c r="BB15" s="53"/>
-      <c r="BC15" s="53"/>
-      <c r="BD15" s="53"/>
-      <c r="BE15" s="53"/>
-      <c r="BF15" s="54"/>
+      <c r="AO15" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP15" s="42"/>
+      <c r="AQ15" s="42"/>
+      <c r="AR15" s="42"/>
+      <c r="AS15" s="42"/>
+      <c r="AT15" s="42"/>
+      <c r="AU15" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="AV15" s="60"/>
+      <c r="AW15" s="60"/>
+      <c r="AX15" s="60"/>
+      <c r="AY15" s="60"/>
+      <c r="AZ15" s="60"/>
+      <c r="BA15" s="60"/>
+      <c r="BB15" s="60"/>
+      <c r="BC15" s="60"/>
+      <c r="BD15" s="60"/>
+      <c r="BE15" s="60"/>
+      <c r="BF15" s="61"/>
     </row>
     <row r="16" spans="1:58">
       <c r="A16" s="31"/>
       <c r="AN16" s="2"/>
-      <c r="AO16" s="52"/>
-      <c r="AP16" s="44"/>
-      <c r="AQ16" s="44"/>
-      <c r="AR16" s="44"/>
-      <c r="AS16" s="44"/>
-      <c r="AT16" s="44"/>
-      <c r="AU16" s="53"/>
-      <c r="AV16" s="53"/>
-      <c r="AW16" s="53"/>
-      <c r="AX16" s="53"/>
-      <c r="AY16" s="53"/>
-      <c r="AZ16" s="53"/>
-      <c r="BA16" s="53"/>
-      <c r="BB16" s="53"/>
-      <c r="BC16" s="53"/>
-      <c r="BD16" s="53"/>
-      <c r="BE16" s="53"/>
-      <c r="BF16" s="54"/>
+      <c r="AO16" s="59"/>
+      <c r="AP16" s="42"/>
+      <c r="AQ16" s="42"/>
+      <c r="AR16" s="42"/>
+      <c r="AS16" s="42"/>
+      <c r="AT16" s="42"/>
+      <c r="AU16" s="60"/>
+      <c r="AV16" s="60"/>
+      <c r="AW16" s="60"/>
+      <c r="AX16" s="60"/>
+      <c r="AY16" s="60"/>
+      <c r="AZ16" s="60"/>
+      <c r="BA16" s="60"/>
+      <c r="BB16" s="60"/>
+      <c r="BC16" s="60"/>
+      <c r="BD16" s="60"/>
+      <c r="BE16" s="60"/>
+      <c r="BF16" s="61"/>
     </row>
     <row r="17" spans="1:58">
       <c r="A17" s="31"/>
       <c r="AN17" s="2"/>
-      <c r="AO17" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP17" s="44"/>
-      <c r="AQ17" s="44"/>
-      <c r="AR17" s="44"/>
-      <c r="AS17" s="44"/>
-      <c r="AT17" s="44"/>
-      <c r="AU17" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="AV17" s="53"/>
-      <c r="AW17" s="53"/>
-      <c r="AX17" s="53"/>
-      <c r="AY17" s="53"/>
-      <c r="AZ17" s="53"/>
-      <c r="BA17" s="53"/>
-      <c r="BB17" s="53"/>
-      <c r="BC17" s="53"/>
-      <c r="BD17" s="53"/>
-      <c r="BE17" s="53"/>
-      <c r="BF17" s="54"/>
+      <c r="AO17" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP17" s="42"/>
+      <c r="AQ17" s="42"/>
+      <c r="AR17" s="42"/>
+      <c r="AS17" s="42"/>
+      <c r="AT17" s="42"/>
+      <c r="AU17" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="AV17" s="60"/>
+      <c r="AW17" s="60"/>
+      <c r="AX17" s="60"/>
+      <c r="AY17" s="60"/>
+      <c r="AZ17" s="60"/>
+      <c r="BA17" s="60"/>
+      <c r="BB17" s="60"/>
+      <c r="BC17" s="60"/>
+      <c r="BD17" s="60"/>
+      <c r="BE17" s="60"/>
+      <c r="BF17" s="61"/>
     </row>
     <row r="18" spans="1:58">
       <c r="A18" s="31"/>
       <c r="AN18" s="2"/>
-      <c r="AO18" s="52"/>
-      <c r="AP18" s="44"/>
-      <c r="AQ18" s="44"/>
-      <c r="AR18" s="44"/>
-      <c r="AS18" s="44"/>
-      <c r="AT18" s="44"/>
-      <c r="AU18" s="53"/>
-      <c r="AV18" s="53"/>
-      <c r="AW18" s="53"/>
-      <c r="AX18" s="53"/>
-      <c r="AY18" s="53"/>
-      <c r="AZ18" s="53"/>
-      <c r="BA18" s="53"/>
-      <c r="BB18" s="53"/>
-      <c r="BC18" s="53"/>
-      <c r="BD18" s="53"/>
-      <c r="BE18" s="53"/>
-      <c r="BF18" s="54"/>
+      <c r="AO18" s="59"/>
+      <c r="AP18" s="42"/>
+      <c r="AQ18" s="42"/>
+      <c r="AR18" s="42"/>
+      <c r="AS18" s="42"/>
+      <c r="AT18" s="42"/>
+      <c r="AU18" s="60"/>
+      <c r="AV18" s="60"/>
+      <c r="AW18" s="60"/>
+      <c r="AX18" s="60"/>
+      <c r="AY18" s="60"/>
+      <c r="AZ18" s="60"/>
+      <c r="BA18" s="60"/>
+      <c r="BB18" s="60"/>
+      <c r="BC18" s="60"/>
+      <c r="BD18" s="60"/>
+      <c r="BE18" s="60"/>
+      <c r="BF18" s="61"/>
     </row>
     <row r="19" spans="1:58">
       <c r="A19" s="31"/>
       <c r="AN19" s="2"/>
-      <c r="AO19" s="52"/>
-      <c r="AP19" s="44"/>
-      <c r="AQ19" s="44"/>
-      <c r="AR19" s="44"/>
-      <c r="AS19" s="44"/>
-      <c r="AT19" s="44"/>
-      <c r="AU19" s="53"/>
-      <c r="AV19" s="53"/>
-      <c r="AW19" s="53"/>
-      <c r="AX19" s="53"/>
-      <c r="AY19" s="53"/>
-      <c r="AZ19" s="53"/>
-      <c r="BA19" s="53"/>
-      <c r="BB19" s="53"/>
-      <c r="BC19" s="53"/>
-      <c r="BD19" s="53"/>
-      <c r="BE19" s="53"/>
-      <c r="BF19" s="54"/>
+      <c r="AO19" s="59"/>
+      <c r="AP19" s="42"/>
+      <c r="AQ19" s="42"/>
+      <c r="AR19" s="42"/>
+      <c r="AS19" s="42"/>
+      <c r="AT19" s="42"/>
+      <c r="AU19" s="60"/>
+      <c r="AV19" s="60"/>
+      <c r="AW19" s="60"/>
+      <c r="AX19" s="60"/>
+      <c r="AY19" s="60"/>
+      <c r="AZ19" s="60"/>
+      <c r="BA19" s="60"/>
+      <c r="BB19" s="60"/>
+      <c r="BC19" s="60"/>
+      <c r="BD19" s="60"/>
+      <c r="BE19" s="60"/>
+      <c r="BF19" s="61"/>
     </row>
     <row r="20" spans="1:58">
       <c r="A20" s="31"/>
       <c r="AN20" s="2"/>
-      <c r="AO20" s="52"/>
-      <c r="AP20" s="44"/>
-      <c r="AQ20" s="44"/>
-      <c r="AR20" s="44"/>
-      <c r="AS20" s="44"/>
-      <c r="AT20" s="44"/>
-      <c r="AU20" s="53"/>
-      <c r="AV20" s="53"/>
-      <c r="AW20" s="53"/>
-      <c r="AX20" s="53"/>
-      <c r="AY20" s="53"/>
-      <c r="AZ20" s="53"/>
-      <c r="BA20" s="53"/>
-      <c r="BB20" s="53"/>
-      <c r="BC20" s="53"/>
-      <c r="BD20" s="53"/>
-      <c r="BE20" s="53"/>
-      <c r="BF20" s="54"/>
+      <c r="AO20" s="59"/>
+      <c r="AP20" s="42"/>
+      <c r="AQ20" s="42"/>
+      <c r="AR20" s="42"/>
+      <c r="AS20" s="42"/>
+      <c r="AT20" s="42"/>
+      <c r="AU20" s="60"/>
+      <c r="AV20" s="60"/>
+      <c r="AW20" s="60"/>
+      <c r="AX20" s="60"/>
+      <c r="AY20" s="60"/>
+      <c r="AZ20" s="60"/>
+      <c r="BA20" s="60"/>
+      <c r="BB20" s="60"/>
+      <c r="BC20" s="60"/>
+      <c r="BD20" s="60"/>
+      <c r="BE20" s="60"/>
+      <c r="BF20" s="61"/>
     </row>
     <row r="21" spans="1:58">
       <c r="A21" s="31"/>
       <c r="AN21" s="2"/>
-      <c r="AO21" s="52"/>
-      <c r="AP21" s="44"/>
-      <c r="AQ21" s="44"/>
-      <c r="AR21" s="44"/>
-      <c r="AS21" s="44"/>
-      <c r="AT21" s="44"/>
-      <c r="AU21" s="53"/>
-      <c r="AV21" s="53"/>
-      <c r="AW21" s="53"/>
-      <c r="AX21" s="53"/>
-      <c r="AY21" s="53"/>
-      <c r="AZ21" s="53"/>
-      <c r="BA21" s="53"/>
-      <c r="BB21" s="53"/>
-      <c r="BC21" s="53"/>
-      <c r="BD21" s="53"/>
-      <c r="BE21" s="53"/>
-      <c r="BF21" s="54"/>
+      <c r="AO21" s="59"/>
+      <c r="AP21" s="42"/>
+      <c r="AQ21" s="42"/>
+      <c r="AR21" s="42"/>
+      <c r="AS21" s="42"/>
+      <c r="AT21" s="42"/>
+      <c r="AU21" s="60"/>
+      <c r="AV21" s="60"/>
+      <c r="AW21" s="60"/>
+      <c r="AX21" s="60"/>
+      <c r="AY21" s="60"/>
+      <c r="AZ21" s="60"/>
+      <c r="BA21" s="60"/>
+      <c r="BB21" s="60"/>
+      <c r="BC21" s="60"/>
+      <c r="BD21" s="60"/>
+      <c r="BE21" s="60"/>
+      <c r="BF21" s="61"/>
     </row>
     <row r="22" spans="1:58">
       <c r="A22" s="31"/>
       <c r="AN22" s="2"/>
-      <c r="AO22" s="52"/>
-      <c r="AP22" s="44"/>
-      <c r="AQ22" s="44"/>
-      <c r="AR22" s="44"/>
-      <c r="AS22" s="44"/>
-      <c r="AT22" s="44"/>
-      <c r="AU22" s="53"/>
-      <c r="AV22" s="53"/>
-      <c r="AW22" s="53"/>
-      <c r="AX22" s="53"/>
-      <c r="AY22" s="53"/>
-      <c r="AZ22" s="53"/>
-      <c r="BA22" s="53"/>
-      <c r="BB22" s="53"/>
-      <c r="BC22" s="53"/>
-      <c r="BD22" s="53"/>
-      <c r="BE22" s="53"/>
-      <c r="BF22" s="54"/>
+      <c r="AO22" s="59"/>
+      <c r="AP22" s="42"/>
+      <c r="AQ22" s="42"/>
+      <c r="AR22" s="42"/>
+      <c r="AS22" s="42"/>
+      <c r="AT22" s="42"/>
+      <c r="AU22" s="60"/>
+      <c r="AV22" s="60"/>
+      <c r="AW22" s="60"/>
+      <c r="AX22" s="60"/>
+      <c r="AY22" s="60"/>
+      <c r="AZ22" s="60"/>
+      <c r="BA22" s="60"/>
+      <c r="BB22" s="60"/>
+      <c r="BC22" s="60"/>
+      <c r="BD22" s="60"/>
+      <c r="BE22" s="60"/>
+      <c r="BF22" s="61"/>
     </row>
     <row r="23" spans="1:58">
       <c r="A23" s="31"/>
       <c r="AN23" s="2"/>
-      <c r="AO23" s="52"/>
-      <c r="AP23" s="44"/>
-      <c r="AQ23" s="44"/>
-      <c r="AR23" s="44"/>
-      <c r="AS23" s="44"/>
-      <c r="AT23" s="44"/>
-      <c r="AU23" s="53"/>
-      <c r="AV23" s="53"/>
-      <c r="AW23" s="53"/>
-      <c r="AX23" s="53"/>
-      <c r="AY23" s="53"/>
-      <c r="AZ23" s="53"/>
-      <c r="BA23" s="53"/>
-      <c r="BB23" s="53"/>
-      <c r="BC23" s="53"/>
-      <c r="BD23" s="53"/>
-      <c r="BE23" s="53"/>
-      <c r="BF23" s="54"/>
+      <c r="AO23" s="59"/>
+      <c r="AP23" s="42"/>
+      <c r="AQ23" s="42"/>
+      <c r="AR23" s="42"/>
+      <c r="AS23" s="42"/>
+      <c r="AT23" s="42"/>
+      <c r="AU23" s="60"/>
+      <c r="AV23" s="60"/>
+      <c r="AW23" s="60"/>
+      <c r="AX23" s="60"/>
+      <c r="AY23" s="60"/>
+      <c r="AZ23" s="60"/>
+      <c r="BA23" s="60"/>
+      <c r="BB23" s="60"/>
+      <c r="BC23" s="60"/>
+      <c r="BD23" s="60"/>
+      <c r="BE23" s="60"/>
+      <c r="BF23" s="61"/>
     </row>
     <row r="24" spans="1:58">
       <c r="A24" s="31"/>
       <c r="AN24" s="2"/>
-      <c r="AO24" s="52"/>
-      <c r="AP24" s="44"/>
-      <c r="AQ24" s="44"/>
-      <c r="AR24" s="44"/>
-      <c r="AS24" s="44"/>
-      <c r="AT24" s="44"/>
-      <c r="AU24" s="53"/>
-      <c r="AV24" s="53"/>
-      <c r="AW24" s="53"/>
-      <c r="AX24" s="53"/>
-      <c r="AY24" s="53"/>
-      <c r="AZ24" s="53"/>
-      <c r="BA24" s="53"/>
-      <c r="BB24" s="53"/>
-      <c r="BC24" s="53"/>
-      <c r="BD24" s="53"/>
-      <c r="BE24" s="53"/>
-      <c r="BF24" s="54"/>
+      <c r="AO24" s="59"/>
+      <c r="AP24" s="42"/>
+      <c r="AQ24" s="42"/>
+      <c r="AR24" s="42"/>
+      <c r="AS24" s="42"/>
+      <c r="AT24" s="42"/>
+      <c r="AU24" s="60"/>
+      <c r="AV24" s="60"/>
+      <c r="AW24" s="60"/>
+      <c r="AX24" s="60"/>
+      <c r="AY24" s="60"/>
+      <c r="AZ24" s="60"/>
+      <c r="BA24" s="60"/>
+      <c r="BB24" s="60"/>
+      <c r="BC24" s="60"/>
+      <c r="BD24" s="60"/>
+      <c r="BE24" s="60"/>
+      <c r="BF24" s="61"/>
     </row>
     <row r="25" spans="1:58">
       <c r="A25" s="31"/>
       <c r="AN25" s="2"/>
-      <c r="AO25" s="52"/>
-      <c r="AP25" s="44"/>
-      <c r="AQ25" s="44"/>
-      <c r="AR25" s="44"/>
-      <c r="AS25" s="44"/>
-      <c r="AT25" s="44"/>
-      <c r="AU25" s="53"/>
-      <c r="AV25" s="53"/>
-      <c r="AW25" s="53"/>
-      <c r="AX25" s="53"/>
-      <c r="AY25" s="53"/>
-      <c r="AZ25" s="53"/>
-      <c r="BA25" s="53"/>
-      <c r="BB25" s="53"/>
-      <c r="BC25" s="53"/>
-      <c r="BD25" s="53"/>
-      <c r="BE25" s="53"/>
-      <c r="BF25" s="54"/>
+      <c r="AO25" s="59"/>
+      <c r="AP25" s="42"/>
+      <c r="AQ25" s="42"/>
+      <c r="AR25" s="42"/>
+      <c r="AS25" s="42"/>
+      <c r="AT25" s="42"/>
+      <c r="AU25" s="60"/>
+      <c r="AV25" s="60"/>
+      <c r="AW25" s="60"/>
+      <c r="AX25" s="60"/>
+      <c r="AY25" s="60"/>
+      <c r="AZ25" s="60"/>
+      <c r="BA25" s="60"/>
+      <c r="BB25" s="60"/>
+      <c r="BC25" s="60"/>
+      <c r="BD25" s="60"/>
+      <c r="BE25" s="60"/>
+      <c r="BF25" s="61"/>
     </row>
     <row r="26" spans="1:58">
       <c r="A26" s="31"/>
       <c r="AN26" s="2"/>
-      <c r="AO26" s="52"/>
-      <c r="AP26" s="44"/>
-      <c r="AQ26" s="44"/>
-      <c r="AR26" s="44"/>
-      <c r="AS26" s="44"/>
-      <c r="AT26" s="44"/>
-      <c r="AU26" s="53"/>
-      <c r="AV26" s="53"/>
-      <c r="AW26" s="53"/>
-      <c r="AX26" s="53"/>
-      <c r="AY26" s="53"/>
-      <c r="AZ26" s="53"/>
-      <c r="BA26" s="53"/>
-      <c r="BB26" s="53"/>
-      <c r="BC26" s="53"/>
-      <c r="BD26" s="53"/>
-      <c r="BE26" s="53"/>
-      <c r="BF26" s="54"/>
+      <c r="AO26" s="59"/>
+      <c r="AP26" s="42"/>
+      <c r="AQ26" s="42"/>
+      <c r="AR26" s="42"/>
+      <c r="AS26" s="42"/>
+      <c r="AT26" s="42"/>
+      <c r="AU26" s="60"/>
+      <c r="AV26" s="60"/>
+      <c r="AW26" s="60"/>
+      <c r="AX26" s="60"/>
+      <c r="AY26" s="60"/>
+      <c r="AZ26" s="60"/>
+      <c r="BA26" s="60"/>
+      <c r="BB26" s="60"/>
+      <c r="BC26" s="60"/>
+      <c r="BD26" s="60"/>
+      <c r="BE26" s="60"/>
+      <c r="BF26" s="61"/>
     </row>
     <row r="27" spans="1:58">
       <c r="A27" s="31"/>
       <c r="AN27" s="2"/>
-      <c r="AO27" s="52"/>
-      <c r="AP27" s="44"/>
-      <c r="AQ27" s="44"/>
-      <c r="AR27" s="44"/>
-      <c r="AS27" s="44"/>
-      <c r="AT27" s="44"/>
-      <c r="AU27" s="53"/>
-      <c r="AV27" s="53"/>
-      <c r="AW27" s="53"/>
-      <c r="AX27" s="53"/>
-      <c r="AY27" s="53"/>
-      <c r="AZ27" s="53"/>
-      <c r="BA27" s="53"/>
-      <c r="BB27" s="53"/>
-      <c r="BC27" s="53"/>
-      <c r="BD27" s="53"/>
-      <c r="BE27" s="53"/>
-      <c r="BF27" s="54"/>
+      <c r="AO27" s="59"/>
+      <c r="AP27" s="42"/>
+      <c r="AQ27" s="42"/>
+      <c r="AR27" s="42"/>
+      <c r="AS27" s="42"/>
+      <c r="AT27" s="42"/>
+      <c r="AU27" s="60"/>
+      <c r="AV27" s="60"/>
+      <c r="AW27" s="60"/>
+      <c r="AX27" s="60"/>
+      <c r="AY27" s="60"/>
+      <c r="AZ27" s="60"/>
+      <c r="BA27" s="60"/>
+      <c r="BB27" s="60"/>
+      <c r="BC27" s="60"/>
+      <c r="BD27" s="60"/>
+      <c r="BE27" s="60"/>
+      <c r="BF27" s="61"/>
     </row>
     <row r="28" spans="1:58">
       <c r="A28" s="31"/>
       <c r="AN28" s="2"/>
-      <c r="AO28" s="52"/>
-      <c r="AP28" s="44"/>
-      <c r="AQ28" s="44"/>
-      <c r="AR28" s="44"/>
-      <c r="AS28" s="44"/>
-      <c r="AT28" s="44"/>
-      <c r="AU28" s="53"/>
-      <c r="AV28" s="53"/>
-      <c r="AW28" s="53"/>
-      <c r="AX28" s="53"/>
-      <c r="AY28" s="53"/>
-      <c r="AZ28" s="53"/>
-      <c r="BA28" s="53"/>
-      <c r="BB28" s="53"/>
-      <c r="BC28" s="53"/>
-      <c r="BD28" s="53"/>
-      <c r="BE28" s="53"/>
-      <c r="BF28" s="54"/>
+      <c r="AO28" s="59"/>
+      <c r="AP28" s="42"/>
+      <c r="AQ28" s="42"/>
+      <c r="AR28" s="42"/>
+      <c r="AS28" s="42"/>
+      <c r="AT28" s="42"/>
+      <c r="AU28" s="60"/>
+      <c r="AV28" s="60"/>
+      <c r="AW28" s="60"/>
+      <c r="AX28" s="60"/>
+      <c r="AY28" s="60"/>
+      <c r="AZ28" s="60"/>
+      <c r="BA28" s="60"/>
+      <c r="BB28" s="60"/>
+      <c r="BC28" s="60"/>
+      <c r="BD28" s="60"/>
+      <c r="BE28" s="60"/>
+      <c r="BF28" s="61"/>
     </row>
     <row r="29" spans="1:58">
       <c r="A29" s="31"/>
       <c r="AN29" s="2"/>
-      <c r="AO29" s="52"/>
-      <c r="AP29" s="44"/>
-      <c r="AQ29" s="44"/>
-      <c r="AR29" s="44"/>
-      <c r="AS29" s="44"/>
-      <c r="AT29" s="44"/>
-      <c r="AU29" s="53"/>
-      <c r="AV29" s="53"/>
-      <c r="AW29" s="53"/>
-      <c r="AX29" s="53"/>
-      <c r="AY29" s="53"/>
-      <c r="AZ29" s="53"/>
-      <c r="BA29" s="53"/>
-      <c r="BB29" s="53"/>
-      <c r="BC29" s="53"/>
-      <c r="BD29" s="53"/>
-      <c r="BE29" s="53"/>
-      <c r="BF29" s="54"/>
+      <c r="AO29" s="59"/>
+      <c r="AP29" s="42"/>
+      <c r="AQ29" s="42"/>
+      <c r="AR29" s="42"/>
+      <c r="AS29" s="42"/>
+      <c r="AT29" s="42"/>
+      <c r="AU29" s="60"/>
+      <c r="AV29" s="60"/>
+      <c r="AW29" s="60"/>
+      <c r="AX29" s="60"/>
+      <c r="AY29" s="60"/>
+      <c r="AZ29" s="60"/>
+      <c r="BA29" s="60"/>
+      <c r="BB29" s="60"/>
+      <c r="BC29" s="60"/>
+      <c r="BD29" s="60"/>
+      <c r="BE29" s="60"/>
+      <c r="BF29" s="61"/>
     </row>
     <row r="30" spans="1:58">
       <c r="A30" s="31"/>
       <c r="AN30" s="2"/>
-      <c r="AO30" s="52"/>
-      <c r="AP30" s="44"/>
-      <c r="AQ30" s="44"/>
-      <c r="AR30" s="44"/>
-      <c r="AS30" s="44"/>
-      <c r="AT30" s="44"/>
-      <c r="AU30" s="53"/>
-      <c r="AV30" s="53"/>
-      <c r="AW30" s="53"/>
-      <c r="AX30" s="53"/>
-      <c r="AY30" s="53"/>
-      <c r="AZ30" s="53"/>
-      <c r="BA30" s="53"/>
-      <c r="BB30" s="53"/>
-      <c r="BC30" s="53"/>
-      <c r="BD30" s="53"/>
-      <c r="BE30" s="53"/>
-      <c r="BF30" s="54"/>
+      <c r="AO30" s="59"/>
+      <c r="AP30" s="42"/>
+      <c r="AQ30" s="42"/>
+      <c r="AR30" s="42"/>
+      <c r="AS30" s="42"/>
+      <c r="AT30" s="42"/>
+      <c r="AU30" s="60"/>
+      <c r="AV30" s="60"/>
+      <c r="AW30" s="60"/>
+      <c r="AX30" s="60"/>
+      <c r="AY30" s="60"/>
+      <c r="AZ30" s="60"/>
+      <c r="BA30" s="60"/>
+      <c r="BB30" s="60"/>
+      <c r="BC30" s="60"/>
+      <c r="BD30" s="60"/>
+      <c r="BE30" s="60"/>
+      <c r="BF30" s="61"/>
     </row>
     <row r="31" spans="1:58">
       <c r="A31" s="31"/>
       <c r="AN31" s="2"/>
-      <c r="AO31" s="52"/>
-      <c r="AP31" s="44"/>
-      <c r="AQ31" s="44"/>
-      <c r="AR31" s="44"/>
-      <c r="AS31" s="44"/>
-      <c r="AT31" s="44"/>
-      <c r="AU31" s="53"/>
-      <c r="AV31" s="53"/>
-      <c r="AW31" s="53"/>
-      <c r="AX31" s="53"/>
-      <c r="AY31" s="53"/>
-      <c r="AZ31" s="53"/>
-      <c r="BA31" s="53"/>
-      <c r="BB31" s="53"/>
-      <c r="BC31" s="53"/>
-      <c r="BD31" s="53"/>
-      <c r="BE31" s="53"/>
-      <c r="BF31" s="54"/>
+      <c r="AO31" s="59"/>
+      <c r="AP31" s="42"/>
+      <c r="AQ31" s="42"/>
+      <c r="AR31" s="42"/>
+      <c r="AS31" s="42"/>
+      <c r="AT31" s="42"/>
+      <c r="AU31" s="60"/>
+      <c r="AV31" s="60"/>
+      <c r="AW31" s="60"/>
+      <c r="AX31" s="60"/>
+      <c r="AY31" s="60"/>
+      <c r="AZ31" s="60"/>
+      <c r="BA31" s="60"/>
+      <c r="BB31" s="60"/>
+      <c r="BC31" s="60"/>
+      <c r="BD31" s="60"/>
+      <c r="BE31" s="60"/>
+      <c r="BF31" s="61"/>
     </row>
     <row r="32" spans="1:58">
       <c r="A32" s="31"/>
       <c r="AN32" s="2"/>
-      <c r="AO32" s="52"/>
-      <c r="AP32" s="44"/>
-      <c r="AQ32" s="44"/>
-      <c r="AR32" s="44"/>
-      <c r="AS32" s="44"/>
-      <c r="AT32" s="44"/>
-      <c r="AU32" s="53"/>
-      <c r="AV32" s="53"/>
-      <c r="AW32" s="53"/>
-      <c r="AX32" s="53"/>
-      <c r="AY32" s="53"/>
-      <c r="AZ32" s="53"/>
-      <c r="BA32" s="53"/>
-      <c r="BB32" s="53"/>
-      <c r="BC32" s="53"/>
-      <c r="BD32" s="53"/>
-      <c r="BE32" s="53"/>
-      <c r="BF32" s="54"/>
+      <c r="AO32" s="59"/>
+      <c r="AP32" s="42"/>
+      <c r="AQ32" s="42"/>
+      <c r="AR32" s="42"/>
+      <c r="AS32" s="42"/>
+      <c r="AT32" s="42"/>
+      <c r="AU32" s="60"/>
+      <c r="AV32" s="60"/>
+      <c r="AW32" s="60"/>
+      <c r="AX32" s="60"/>
+      <c r="AY32" s="60"/>
+      <c r="AZ32" s="60"/>
+      <c r="BA32" s="60"/>
+      <c r="BB32" s="60"/>
+      <c r="BC32" s="60"/>
+      <c r="BD32" s="60"/>
+      <c r="BE32" s="60"/>
+      <c r="BF32" s="61"/>
     </row>
     <row r="33" spans="1:58">
       <c r="A33" s="31"/>
       <c r="AN33" s="2"/>
-      <c r="AO33" s="52"/>
-      <c r="AP33" s="44"/>
-      <c r="AQ33" s="44"/>
-      <c r="AR33" s="44"/>
-      <c r="AS33" s="44"/>
-      <c r="AT33" s="44"/>
-      <c r="AU33" s="53"/>
-      <c r="AV33" s="53"/>
-      <c r="AW33" s="53"/>
-      <c r="AX33" s="53"/>
-      <c r="AY33" s="53"/>
-      <c r="AZ33" s="53"/>
-      <c r="BA33" s="53"/>
-      <c r="BB33" s="53"/>
-      <c r="BC33" s="53"/>
-      <c r="BD33" s="53"/>
-      <c r="BE33" s="53"/>
-      <c r="BF33" s="54"/>
+      <c r="AO33" s="59"/>
+      <c r="AP33" s="42"/>
+      <c r="AQ33" s="42"/>
+      <c r="AR33" s="42"/>
+      <c r="AS33" s="42"/>
+      <c r="AT33" s="42"/>
+      <c r="AU33" s="60"/>
+      <c r="AV33" s="60"/>
+      <c r="AW33" s="60"/>
+      <c r="AX33" s="60"/>
+      <c r="AY33" s="60"/>
+      <c r="AZ33" s="60"/>
+      <c r="BA33" s="60"/>
+      <c r="BB33" s="60"/>
+      <c r="BC33" s="60"/>
+      <c r="BD33" s="60"/>
+      <c r="BE33" s="60"/>
+      <c r="BF33" s="61"/>
     </row>
     <row r="34" spans="1:58">
       <c r="A34" s="31"/>
       <c r="AN34" s="2"/>
-      <c r="AO34" s="52"/>
-      <c r="AP34" s="44"/>
-      <c r="AQ34" s="44"/>
-      <c r="AR34" s="44"/>
-      <c r="AS34" s="44"/>
-      <c r="AT34" s="44"/>
-      <c r="AU34" s="53"/>
-      <c r="AV34" s="53"/>
-      <c r="AW34" s="53"/>
-      <c r="AX34" s="53"/>
-      <c r="AY34" s="53"/>
-      <c r="AZ34" s="53"/>
-      <c r="BA34" s="53"/>
-      <c r="BB34" s="53"/>
-      <c r="BC34" s="53"/>
-      <c r="BD34" s="53"/>
-      <c r="BE34" s="53"/>
-      <c r="BF34" s="54"/>
+      <c r="AO34" s="59"/>
+      <c r="AP34" s="42"/>
+      <c r="AQ34" s="42"/>
+      <c r="AR34" s="42"/>
+      <c r="AS34" s="42"/>
+      <c r="AT34" s="42"/>
+      <c r="AU34" s="60"/>
+      <c r="AV34" s="60"/>
+      <c r="AW34" s="60"/>
+      <c r="AX34" s="60"/>
+      <c r="AY34" s="60"/>
+      <c r="AZ34" s="60"/>
+      <c r="BA34" s="60"/>
+      <c r="BB34" s="60"/>
+      <c r="BC34" s="60"/>
+      <c r="BD34" s="60"/>
+      <c r="BE34" s="60"/>
+      <c r="BF34" s="61"/>
     </row>
     <row r="35" spans="1:58">
       <c r="A35" s="31"/>
       <c r="AN35" s="2"/>
-      <c r="AO35" s="52"/>
-      <c r="AP35" s="44"/>
-      <c r="AQ35" s="44"/>
-      <c r="AR35" s="44"/>
-      <c r="AS35" s="44"/>
-      <c r="AT35" s="44"/>
-      <c r="AU35" s="53"/>
-      <c r="AV35" s="53"/>
-      <c r="AW35" s="53"/>
-      <c r="AX35" s="53"/>
-      <c r="AY35" s="53"/>
-      <c r="AZ35" s="53"/>
-      <c r="BA35" s="53"/>
-      <c r="BB35" s="53"/>
-      <c r="BC35" s="53"/>
-      <c r="BD35" s="53"/>
-      <c r="BE35" s="53"/>
-      <c r="BF35" s="54"/>
+      <c r="AO35" s="59"/>
+      <c r="AP35" s="42"/>
+      <c r="AQ35" s="42"/>
+      <c r="AR35" s="42"/>
+      <c r="AS35" s="42"/>
+      <c r="AT35" s="42"/>
+      <c r="AU35" s="60"/>
+      <c r="AV35" s="60"/>
+      <c r="AW35" s="60"/>
+      <c r="AX35" s="60"/>
+      <c r="AY35" s="60"/>
+      <c r="AZ35" s="60"/>
+      <c r="BA35" s="60"/>
+      <c r="BB35" s="60"/>
+      <c r="BC35" s="60"/>
+      <c r="BD35" s="60"/>
+      <c r="BE35" s="60"/>
+      <c r="BF35" s="61"/>
     </row>
     <row r="36" spans="1:58">
       <c r="A36" s="31"/>
       <c r="AN36" s="2"/>
-      <c r="AO36" s="52"/>
-      <c r="AP36" s="44"/>
-      <c r="AQ36" s="44"/>
-      <c r="AR36" s="44"/>
-      <c r="AS36" s="44"/>
-      <c r="AT36" s="44"/>
-      <c r="AU36" s="53"/>
-      <c r="AV36" s="53"/>
-      <c r="AW36" s="53"/>
-      <c r="AX36" s="53"/>
-      <c r="AY36" s="53"/>
-      <c r="AZ36" s="53"/>
-      <c r="BA36" s="53"/>
-      <c r="BB36" s="53"/>
-      <c r="BC36" s="53"/>
-      <c r="BD36" s="53"/>
-      <c r="BE36" s="53"/>
-      <c r="BF36" s="54"/>
+      <c r="AO36" s="59"/>
+      <c r="AP36" s="42"/>
+      <c r="AQ36" s="42"/>
+      <c r="AR36" s="42"/>
+      <c r="AS36" s="42"/>
+      <c r="AT36" s="42"/>
+      <c r="AU36" s="60"/>
+      <c r="AV36" s="60"/>
+      <c r="AW36" s="60"/>
+      <c r="AX36" s="60"/>
+      <c r="AY36" s="60"/>
+      <c r="AZ36" s="60"/>
+      <c r="BA36" s="60"/>
+      <c r="BB36" s="60"/>
+      <c r="BC36" s="60"/>
+      <c r="BD36" s="60"/>
+      <c r="BE36" s="60"/>
+      <c r="BF36" s="61"/>
     </row>
     <row r="37" spans="1:58">
       <c r="A37" s="31"/>
@@ -3386,19 +3412,24 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="U1:AI1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AO1:AU1"/>
-    <mergeCell ref="BA1:BF1"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="U2:AI2"/>
-    <mergeCell ref="AJ2:AN2"/>
-    <mergeCell ref="AO2:AU2"/>
-    <mergeCell ref="AV2:AZ2"/>
-    <mergeCell ref="BA2:BF2"/>
-    <mergeCell ref="AV1:AZ1"/>
+    <mergeCell ref="AO31:AT32"/>
+    <mergeCell ref="AU31:BF32"/>
+    <mergeCell ref="AO33:AT34"/>
+    <mergeCell ref="AU33:BF34"/>
+    <mergeCell ref="AO35:AT36"/>
+    <mergeCell ref="AU35:BF36"/>
+    <mergeCell ref="AO25:AT26"/>
+    <mergeCell ref="AU25:BF26"/>
+    <mergeCell ref="AO27:AT28"/>
+    <mergeCell ref="AU27:BF28"/>
+    <mergeCell ref="AO29:AT30"/>
+    <mergeCell ref="AU29:BF30"/>
+    <mergeCell ref="AO19:AT20"/>
+    <mergeCell ref="AU19:BF20"/>
+    <mergeCell ref="AO21:AT22"/>
+    <mergeCell ref="AU21:BF22"/>
+    <mergeCell ref="AO23:AT24"/>
+    <mergeCell ref="AU23:BF24"/>
     <mergeCell ref="AO15:AT16"/>
     <mergeCell ref="AU15:BF16"/>
     <mergeCell ref="AO17:AT18"/>
@@ -3415,24 +3446,19 @@
     <mergeCell ref="AO7:AT8"/>
     <mergeCell ref="AO11:AT12"/>
     <mergeCell ref="AO9:AT10"/>
-    <mergeCell ref="AO19:AT20"/>
-    <mergeCell ref="AU19:BF20"/>
-    <mergeCell ref="AO21:AT22"/>
-    <mergeCell ref="AU21:BF22"/>
-    <mergeCell ref="AO23:AT24"/>
-    <mergeCell ref="AU23:BF24"/>
-    <mergeCell ref="AO25:AT26"/>
-    <mergeCell ref="AU25:BF26"/>
-    <mergeCell ref="AO27:AT28"/>
-    <mergeCell ref="AU27:BF28"/>
-    <mergeCell ref="AO29:AT30"/>
-    <mergeCell ref="AU29:BF30"/>
-    <mergeCell ref="AO31:AT32"/>
-    <mergeCell ref="AU31:BF32"/>
-    <mergeCell ref="AO33:AT34"/>
-    <mergeCell ref="AU33:BF34"/>
-    <mergeCell ref="AO35:AT36"/>
-    <mergeCell ref="AU35:BF36"/>
+    <mergeCell ref="BA1:BF1"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="U2:AI2"/>
+    <mergeCell ref="AJ2:AN2"/>
+    <mergeCell ref="AO2:AU2"/>
+    <mergeCell ref="AV2:AZ2"/>
+    <mergeCell ref="BA2:BF2"/>
+    <mergeCell ref="AV1:AZ1"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="U1:AI1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AO1:AU1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/市場_2025改修/基本設計_2025/26_画面設計書(口座データ).xlsx
+++ b/市場_2025改修/基本設計_2025/26_画面設計書(口座データ).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ts\Documents\サントク\202205姫路市VBA\200_2025改修\v0\基本設計_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\Git001\市場_2025改修\基本設計_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA3F6DB-1959-492F-BA50-96BD881954BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FE26EF-C43E-4ECC-AEBA-3573F4EF03DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="888" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="170" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>作成者</t>
   </si>
@@ -373,16 +373,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>対象を表示</t>
-    <rPh sb="0" eb="2">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>印刷をする</t>
     <rPh sb="0" eb="2">
       <t>インサツ</t>
@@ -404,6 +394,23 @@
     <t>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>新規</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>振替印刷指定　対象を表示</t>
+    <rPh sb="7" eb="9">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -851,7 +858,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -946,12 +953,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -967,44 +986,71 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1021,58 +1067,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1487,7 +1491,7 @@
   </sheetPr>
   <dimension ref="C1:P23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C7" sqref="C7:N7"/>
     </sheetView>
   </sheetViews>
@@ -1520,50 +1524,50 @@
     </row>
     <row r="6" spans="3:16" ht="22.5" customHeight="1">
       <c r="C6" s="12"/>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
       <c r="N6" s="13"/>
     </row>
     <row r="7" spans="3:16" ht="51" customHeight="1">
-      <c r="C7" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="38"/>
+      <c r="C7" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="42"/>
     </row>
     <row r="8" spans="3:16" ht="39" customHeight="1">
       <c r="C8" s="12"/>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
       <c r="N8" s="13"/>
     </row>
     <row r="9" spans="3:16" ht="22.5" customHeight="1" thickBot="1">
@@ -1582,23 +1586,23 @@
     </row>
     <row r="10" spans="3:16" ht="22.5" customHeight="1" thickTop="1"/>
     <row r="12" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="33"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="41"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="37"/>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
     </row>
     <row r="13" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="33"/>
+      <c r="G13" s="34"/>
       <c r="H13" s="28"/>
       <c r="I13" s="29"/>
       <c r="J13" s="29"/>
@@ -1608,48 +1612,48 @@
       <c r="N13" s="17"/>
     </row>
     <row r="14" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="33"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="41"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="37"/>
     </row>
     <row r="15" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="39" t="s">
+      <c r="G15" s="34"/>
+      <c r="H15" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="37"/>
+    </row>
+    <row r="16" spans="3:16" ht="22.5" customHeight="1">
+      <c r="F16" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="34"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="37"/>
+    </row>
+    <row r="17" spans="6:16" ht="22.5" customHeight="1">
+      <c r="F17" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="34"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="37"/>
+      <c r="N17" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="41"/>
-    </row>
-    <row r="16" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F16" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="33"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="41"/>
-    </row>
-    <row r="17" spans="6:16" ht="22.5" customHeight="1">
-      <c r="F17" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="33"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="41"/>
-      <c r="N17" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="18" spans="6:16" ht="22.5" customHeight="1">
@@ -1677,6 +1681,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="F14:G14"/>
@@ -1685,12 +1695,6 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:K16"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1705,7 +1709,7 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="F10" sqref="F10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="18.75" customHeight="1"/>
@@ -1719,52 +1723,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="51" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
       <c r="P1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
       <c r="P2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="24"/>
@@ -1790,427 +1794,433 @@
       <c r="A4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49" t="s">
+      <c r="E4" s="44"/>
+      <c r="F4" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49" t="s">
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1">
       <c r="A5" s="26">
         <v>1</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
+      <c r="B5" s="49">
+        <v>45870</v>
+      </c>
+      <c r="C5" s="49"/>
+      <c r="D5" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1">
       <c r="A6" s="27">
         <v>2</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1">
       <c r="A7" s="27">
         <v>3</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="27">
         <v>4</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1">
       <c r="A9" s="27">
         <v>5</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1">
       <c r="A10" s="27">
         <v>6</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1">
       <c r="A11" s="27">
         <v>7</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1">
       <c r="A12" s="27">
         <v>8</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
     </row>
     <row r="13" spans="1:18" ht="27" customHeight="1">
       <c r="A13" s="27">
         <v>9</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
     </row>
     <row r="14" spans="1:18" ht="27" customHeight="1">
       <c r="A14" s="27">
         <v>10</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="27">
         <v>11</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="27">
         <v>12</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
     </row>
     <row r="17" spans="1:18" ht="27" customHeight="1">
       <c r="A17" s="27">
         <v>13</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
     </row>
     <row r="18" spans="1:18" ht="27" customHeight="1">
       <c r="A18" s="27">
         <v>14</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
     </row>
     <row r="19" spans="1:18" ht="27" customHeight="1">
       <c r="A19" s="27">
         <v>15</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1">
       <c r="A20" s="27">
         <v>16</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="42"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
     </row>
     <row r="21" spans="1:18" ht="27" customHeight="1">
       <c r="A21" s="27">
         <v>17</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="42"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
     </row>
     <row r="22" spans="1:18" ht="27" customHeight="1">
       <c r="A22" s="27">
         <v>18</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="42"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
     </row>
     <row r="23" spans="1:18" ht="27" customHeight="1"/>
     <row r="24" spans="1:18" ht="27" customHeight="1"/>
@@ -2221,30 +2231,46 @@
     <row r="29" spans="1:18" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="D1:O2"/>
-    <mergeCell ref="I4:R4"/>
-    <mergeCell ref="I8:R8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="I21:R21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:R22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I19:R19"/>
+    <mergeCell ref="I20:R20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I17:R17"/>
+    <mergeCell ref="I18:R18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I15:R15"/>
+    <mergeCell ref="I16:R16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I13:R13"/>
+    <mergeCell ref="I14:R14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
     <mergeCell ref="I11:R11"/>
     <mergeCell ref="I12:R12"/>
     <mergeCell ref="B9:C9"/>
@@ -2261,46 +2287,30 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I15:R15"/>
-    <mergeCell ref="I16:R16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I13:R13"/>
-    <mergeCell ref="I14:R14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I19:R19"/>
-    <mergeCell ref="I20:R20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I17:R17"/>
-    <mergeCell ref="I18:R18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I21:R21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:R22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I8:R8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:R6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="D1:O2"/>
+    <mergeCell ref="I4:R4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -2316,8 +2326,8 @@
   </sheetPr>
   <dimension ref="A1:BF50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:AN3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AU17" sqref="AU17:BF18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="11.25"/>
@@ -2325,50 +2335,50 @@
     <col min="1" max="16384" width="2.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="74" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:58" s="32" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="71" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="75" t="str">
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="74" t="str">
         <f>表紙!C7</f>
         <v>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</v>
       </c>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="77"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="75"/>
+      <c r="AD1" s="75"/>
+      <c r="AE1" s="75"/>
+      <c r="AF1" s="75"/>
+      <c r="AG1" s="75"/>
+      <c r="AH1" s="75"/>
+      <c r="AI1" s="76"/>
       <c r="AJ1" s="72" t="s">
         <v>0</v>
       </c>
@@ -2376,15 +2386,15 @@
       <c r="AL1" s="72"/>
       <c r="AM1" s="72"/>
       <c r="AN1" s="72"/>
-      <c r="AO1" s="73" t="s">
+      <c r="AO1" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="AP1" s="73"/>
-      <c r="AQ1" s="73"/>
-      <c r="AR1" s="73"/>
-      <c r="AS1" s="73"/>
-      <c r="AT1" s="73"/>
-      <c r="AU1" s="73"/>
+      <c r="AP1" s="64"/>
+      <c r="AQ1" s="64"/>
+      <c r="AR1" s="64"/>
+      <c r="AS1" s="64"/>
+      <c r="AT1" s="64"/>
+      <c r="AU1" s="64"/>
       <c r="AV1" s="72" t="s">
         <v>5</v>
       </c>
@@ -2392,147 +2402,147 @@
       <c r="AX1" s="72"/>
       <c r="AY1" s="72"/>
       <c r="AZ1" s="72"/>
-      <c r="BA1" s="73"/>
-      <c r="BB1" s="73"/>
-      <c r="BC1" s="73"/>
-      <c r="BD1" s="73"/>
-      <c r="BE1" s="73"/>
-      <c r="BF1" s="73"/>
+      <c r="BA1" s="64"/>
+      <c r="BB1" s="64"/>
+      <c r="BC1" s="64"/>
+      <c r="BD1" s="64"/>
+      <c r="BE1" s="64"/>
+      <c r="BF1" s="64"/>
     </row>
     <row r="2" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="52" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="53" t="str">
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="66" t="str">
         <f>表紙!H15</f>
         <v>口座データ</v>
       </c>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="54"/>
-      <c r="AH2" s="54"/>
-      <c r="AI2" s="55"/>
-      <c r="AJ2" s="56" t="s">
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="68"/>
+      <c r="AJ2" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="58">
+      <c r="AK2" s="69"/>
+      <c r="AL2" s="69"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="69"/>
+      <c r="AO2" s="70">
         <v>45748</v>
       </c>
-      <c r="AP2" s="57"/>
-      <c r="AQ2" s="57"/>
-      <c r="AR2" s="57"/>
-      <c r="AS2" s="57"/>
-      <c r="AT2" s="57"/>
-      <c r="AU2" s="57"/>
-      <c r="AV2" s="56" t="s">
+      <c r="AP2" s="71"/>
+      <c r="AQ2" s="71"/>
+      <c r="AR2" s="71"/>
+      <c r="AS2" s="71"/>
+      <c r="AT2" s="71"/>
+      <c r="AU2" s="71"/>
+      <c r="AV2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="AW2" s="56"/>
-      <c r="AX2" s="56"/>
-      <c r="AY2" s="56"/>
-      <c r="AZ2" s="56"/>
-      <c r="BA2" s="57"/>
-      <c r="BB2" s="57"/>
-      <c r="BC2" s="57"/>
-      <c r="BD2" s="57"/>
-      <c r="BE2" s="57"/>
-      <c r="BF2" s="57"/>
+      <c r="AW2" s="69"/>
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="71"/>
+      <c r="BB2" s="71"/>
+      <c r="BC2" s="71"/>
+      <c r="BD2" s="71"/>
+      <c r="BE2" s="71"/>
+      <c r="BF2" s="71"/>
     </row>
     <row r="3" spans="1:58" ht="15" customHeight="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="63"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="63"/>
-      <c r="AJ3" s="63"/>
-      <c r="AK3" s="63"/>
-      <c r="AL3" s="63"/>
-      <c r="AM3" s="63"/>
-      <c r="AN3" s="64"/>
-      <c r="AO3" s="62" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="56"/>
+      <c r="AG3" s="56"/>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="56"/>
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="56"/>
+      <c r="AM3" s="56"/>
+      <c r="AN3" s="57"/>
+      <c r="AO3" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="AP3" s="63"/>
-      <c r="AQ3" s="63"/>
-      <c r="AR3" s="63"/>
-      <c r="AS3" s="63"/>
-      <c r="AT3" s="63"/>
-      <c r="AU3" s="63"/>
-      <c r="AV3" s="63"/>
-      <c r="AW3" s="63"/>
-      <c r="AX3" s="63"/>
-      <c r="AY3" s="63"/>
-      <c r="AZ3" s="63"/>
-      <c r="BA3" s="63"/>
-      <c r="BB3" s="63"/>
-      <c r="BC3" s="63"/>
-      <c r="BD3" s="63"/>
-      <c r="BE3" s="63"/>
-      <c r="BF3" s="64"/>
+      <c r="AP3" s="56"/>
+      <c r="AQ3" s="56"/>
+      <c r="AR3" s="56"/>
+      <c r="AS3" s="56"/>
+      <c r="AT3" s="56"/>
+      <c r="AU3" s="56"/>
+      <c r="AV3" s="56"/>
+      <c r="AW3" s="56"/>
+      <c r="AX3" s="56"/>
+      <c r="AY3" s="56"/>
+      <c r="AZ3" s="56"/>
+      <c r="BA3" s="56"/>
+      <c r="BB3" s="56"/>
+      <c r="BC3" s="56"/>
+      <c r="BD3" s="56"/>
+      <c r="BE3" s="56"/>
+      <c r="BF3" s="57"/>
     </row>
     <row r="4" spans="1:58">
       <c r="A4" s="31"/>
@@ -2543,734 +2553,734 @@
     <row r="5" spans="1:58" ht="11.25" customHeight="1">
       <c r="A5" s="31"/>
       <c r="AN5" s="2"/>
-      <c r="AO5" s="59" t="s">
+      <c r="AO5" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="AP5" s="42"/>
-      <c r="AQ5" s="42"/>
-      <c r="AR5" s="42"/>
-      <c r="AS5" s="42"/>
-      <c r="AT5" s="42"/>
-      <c r="AU5" s="60" t="s">
+      <c r="AP5" s="45"/>
+      <c r="AQ5" s="45"/>
+      <c r="AR5" s="45"/>
+      <c r="AS5" s="45"/>
+      <c r="AT5" s="45"/>
+      <c r="AU5" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AV5" s="60"/>
-      <c r="AW5" s="60"/>
-      <c r="AX5" s="60"/>
-      <c r="AY5" s="60"/>
-      <c r="AZ5" s="60"/>
-      <c r="BA5" s="60"/>
-      <c r="BB5" s="60"/>
-      <c r="BC5" s="60"/>
-      <c r="BD5" s="60"/>
-      <c r="BE5" s="60"/>
-      <c r="BF5" s="61"/>
+      <c r="AV5" s="53"/>
+      <c r="AW5" s="53"/>
+      <c r="AX5" s="53"/>
+      <c r="AY5" s="53"/>
+      <c r="AZ5" s="53"/>
+      <c r="BA5" s="53"/>
+      <c r="BB5" s="53"/>
+      <c r="BC5" s="53"/>
+      <c r="BD5" s="53"/>
+      <c r="BE5" s="53"/>
+      <c r="BF5" s="54"/>
     </row>
     <row r="6" spans="1:58">
       <c r="A6" s="31"/>
       <c r="AN6" s="2"/>
-      <c r="AO6" s="59"/>
-      <c r="AP6" s="42"/>
-      <c r="AQ6" s="42"/>
-      <c r="AR6" s="42"/>
-      <c r="AS6" s="42"/>
-      <c r="AT6" s="42"/>
-      <c r="AU6" s="60"/>
-      <c r="AV6" s="60"/>
-      <c r="AW6" s="60"/>
-      <c r="AX6" s="60"/>
-      <c r="AY6" s="60"/>
-      <c r="AZ6" s="60"/>
-      <c r="BA6" s="60"/>
-      <c r="BB6" s="60"/>
-      <c r="BC6" s="60"/>
-      <c r="BD6" s="60"/>
-      <c r="BE6" s="60"/>
-      <c r="BF6" s="61"/>
+      <c r="AO6" s="52"/>
+      <c r="AP6" s="45"/>
+      <c r="AQ6" s="45"/>
+      <c r="AR6" s="45"/>
+      <c r="AS6" s="45"/>
+      <c r="AT6" s="45"/>
+      <c r="AU6" s="53"/>
+      <c r="AV6" s="53"/>
+      <c r="AW6" s="53"/>
+      <c r="AX6" s="53"/>
+      <c r="AY6" s="53"/>
+      <c r="AZ6" s="53"/>
+      <c r="BA6" s="53"/>
+      <c r="BB6" s="53"/>
+      <c r="BC6" s="53"/>
+      <c r="BD6" s="53"/>
+      <c r="BE6" s="53"/>
+      <c r="BF6" s="54"/>
     </row>
     <row r="7" spans="1:58">
       <c r="A7" s="31"/>
       <c r="AN7" s="2"/>
-      <c r="AO7" s="59" t="s">
+      <c r="AO7" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="AP7" s="42"/>
-      <c r="AQ7" s="42"/>
-      <c r="AR7" s="42"/>
-      <c r="AS7" s="42"/>
-      <c r="AT7" s="42"/>
-      <c r="AU7" s="60" t="s">
+      <c r="AP7" s="45"/>
+      <c r="AQ7" s="45"/>
+      <c r="AR7" s="45"/>
+      <c r="AS7" s="45"/>
+      <c r="AT7" s="45"/>
+      <c r="AU7" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="AV7" s="60"/>
-      <c r="AW7" s="60"/>
-      <c r="AX7" s="60"/>
-      <c r="AY7" s="60"/>
-      <c r="AZ7" s="60"/>
-      <c r="BA7" s="60"/>
-      <c r="BB7" s="60"/>
-      <c r="BC7" s="60"/>
-      <c r="BD7" s="60"/>
-      <c r="BE7" s="60"/>
-      <c r="BF7" s="61"/>
+      <c r="AV7" s="53"/>
+      <c r="AW7" s="53"/>
+      <c r="AX7" s="53"/>
+      <c r="AY7" s="53"/>
+      <c r="AZ7" s="53"/>
+      <c r="BA7" s="53"/>
+      <c r="BB7" s="53"/>
+      <c r="BC7" s="53"/>
+      <c r="BD7" s="53"/>
+      <c r="BE7" s="53"/>
+      <c r="BF7" s="54"/>
     </row>
     <row r="8" spans="1:58">
       <c r="A8" s="31"/>
       <c r="AN8" s="2"/>
-      <c r="AO8" s="59"/>
-      <c r="AP8" s="42"/>
-      <c r="AQ8" s="42"/>
-      <c r="AR8" s="42"/>
-      <c r="AS8" s="42"/>
-      <c r="AT8" s="42"/>
-      <c r="AU8" s="60"/>
-      <c r="AV8" s="60"/>
-      <c r="AW8" s="60"/>
-      <c r="AX8" s="60"/>
-      <c r="AY8" s="60"/>
-      <c r="AZ8" s="60"/>
-      <c r="BA8" s="60"/>
-      <c r="BB8" s="60"/>
-      <c r="BC8" s="60"/>
-      <c r="BD8" s="60"/>
-      <c r="BE8" s="60"/>
-      <c r="BF8" s="61"/>
+      <c r="AO8" s="52"/>
+      <c r="AP8" s="45"/>
+      <c r="AQ8" s="45"/>
+      <c r="AR8" s="45"/>
+      <c r="AS8" s="45"/>
+      <c r="AT8" s="45"/>
+      <c r="AU8" s="53"/>
+      <c r="AV8" s="53"/>
+      <c r="AW8" s="53"/>
+      <c r="AX8" s="53"/>
+      <c r="AY8" s="53"/>
+      <c r="AZ8" s="53"/>
+      <c r="BA8" s="53"/>
+      <c r="BB8" s="53"/>
+      <c r="BC8" s="53"/>
+      <c r="BD8" s="53"/>
+      <c r="BE8" s="53"/>
+      <c r="BF8" s="54"/>
     </row>
     <row r="9" spans="1:58">
       <c r="A9" s="31"/>
       <c r="AN9" s="2"/>
-      <c r="AO9" s="59" t="s">
+      <c r="AO9" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="AP9" s="42"/>
-      <c r="AQ9" s="42"/>
-      <c r="AR9" s="42"/>
-      <c r="AS9" s="42"/>
-      <c r="AT9" s="42"/>
-      <c r="AU9" s="60" t="s">
+      <c r="AP9" s="45"/>
+      <c r="AQ9" s="45"/>
+      <c r="AR9" s="45"/>
+      <c r="AS9" s="45"/>
+      <c r="AT9" s="45"/>
+      <c r="AU9" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="AV9" s="60"/>
-      <c r="AW9" s="60"/>
-      <c r="AX9" s="60"/>
-      <c r="AY9" s="60"/>
-      <c r="AZ9" s="60"/>
-      <c r="BA9" s="60"/>
-      <c r="BB9" s="60"/>
-      <c r="BC9" s="60"/>
-      <c r="BD9" s="60"/>
-      <c r="BE9" s="60"/>
-      <c r="BF9" s="61"/>
+      <c r="AV9" s="53"/>
+      <c r="AW9" s="53"/>
+      <c r="AX9" s="53"/>
+      <c r="AY9" s="53"/>
+      <c r="AZ9" s="53"/>
+      <c r="BA9" s="53"/>
+      <c r="BB9" s="53"/>
+      <c r="BC9" s="53"/>
+      <c r="BD9" s="53"/>
+      <c r="BE9" s="53"/>
+      <c r="BF9" s="54"/>
     </row>
     <row r="10" spans="1:58">
       <c r="A10" s="31"/>
       <c r="AN10" s="2"/>
-      <c r="AO10" s="59"/>
-      <c r="AP10" s="42"/>
-      <c r="AQ10" s="42"/>
-      <c r="AR10" s="42"/>
-      <c r="AS10" s="42"/>
-      <c r="AT10" s="42"/>
-      <c r="AU10" s="60"/>
-      <c r="AV10" s="60"/>
-      <c r="AW10" s="60"/>
-      <c r="AX10" s="60"/>
-      <c r="AY10" s="60"/>
-      <c r="AZ10" s="60"/>
-      <c r="BA10" s="60"/>
-      <c r="BB10" s="60"/>
-      <c r="BC10" s="60"/>
-      <c r="BD10" s="60"/>
-      <c r="BE10" s="60"/>
-      <c r="BF10" s="61"/>
+      <c r="AO10" s="52"/>
+      <c r="AP10" s="45"/>
+      <c r="AQ10" s="45"/>
+      <c r="AR10" s="45"/>
+      <c r="AS10" s="45"/>
+      <c r="AT10" s="45"/>
+      <c r="AU10" s="53"/>
+      <c r="AV10" s="53"/>
+      <c r="AW10" s="53"/>
+      <c r="AX10" s="53"/>
+      <c r="AY10" s="53"/>
+      <c r="AZ10" s="53"/>
+      <c r="BA10" s="53"/>
+      <c r="BB10" s="53"/>
+      <c r="BC10" s="53"/>
+      <c r="BD10" s="53"/>
+      <c r="BE10" s="53"/>
+      <c r="BF10" s="54"/>
     </row>
     <row r="11" spans="1:58" ht="16.5" customHeight="1">
       <c r="A11" s="31"/>
       <c r="AN11" s="2"/>
-      <c r="AO11" s="69" t="s">
+      <c r="AO11" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="AP11" s="65"/>
-      <c r="AQ11" s="65"/>
-      <c r="AR11" s="65"/>
-      <c r="AS11" s="65"/>
-      <c r="AT11" s="65"/>
-      <c r="AU11" s="65" t="s">
+      <c r="AP11" s="58"/>
+      <c r="AQ11" s="58"/>
+      <c r="AR11" s="58"/>
+      <c r="AS11" s="58"/>
+      <c r="AT11" s="58"/>
+      <c r="AU11" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="AV11" s="65"/>
-      <c r="AW11" s="65"/>
-      <c r="AX11" s="65"/>
-      <c r="AY11" s="65"/>
-      <c r="AZ11" s="65"/>
-      <c r="BA11" s="65"/>
-      <c r="BB11" s="65"/>
-      <c r="BC11" s="65"/>
-      <c r="BD11" s="65"/>
-      <c r="BE11" s="65"/>
-      <c r="BF11" s="66"/>
+      <c r="AV11" s="58"/>
+      <c r="AW11" s="58"/>
+      <c r="AX11" s="58"/>
+      <c r="AY11" s="58"/>
+      <c r="AZ11" s="58"/>
+      <c r="BA11" s="58"/>
+      <c r="BB11" s="58"/>
+      <c r="BC11" s="58"/>
+      <c r="BD11" s="58"/>
+      <c r="BE11" s="58"/>
+      <c r="BF11" s="59"/>
     </row>
     <row r="12" spans="1:58">
       <c r="A12" s="31"/>
       <c r="AN12" s="2"/>
-      <c r="AO12" s="70"/>
-      <c r="AP12" s="67"/>
-      <c r="AQ12" s="67"/>
-      <c r="AR12" s="67"/>
-      <c r="AS12" s="67"/>
-      <c r="AT12" s="67"/>
-      <c r="AU12" s="67"/>
-      <c r="AV12" s="67"/>
-      <c r="AW12" s="67"/>
-      <c r="AX12" s="67"/>
-      <c r="AY12" s="67"/>
-      <c r="AZ12" s="67"/>
-      <c r="BA12" s="67"/>
-      <c r="BB12" s="67"/>
-      <c r="BC12" s="67"/>
-      <c r="BD12" s="67"/>
-      <c r="BE12" s="67"/>
-      <c r="BF12" s="68"/>
+      <c r="AO12" s="63"/>
+      <c r="AP12" s="60"/>
+      <c r="AQ12" s="60"/>
+      <c r="AR12" s="60"/>
+      <c r="AS12" s="60"/>
+      <c r="AT12" s="60"/>
+      <c r="AU12" s="60"/>
+      <c r="AV12" s="60"/>
+      <c r="AW12" s="60"/>
+      <c r="AX12" s="60"/>
+      <c r="AY12" s="60"/>
+      <c r="AZ12" s="60"/>
+      <c r="BA12" s="60"/>
+      <c r="BB12" s="60"/>
+      <c r="BC12" s="60"/>
+      <c r="BD12" s="60"/>
+      <c r="BE12" s="60"/>
+      <c r="BF12" s="61"/>
     </row>
     <row r="13" spans="1:58">
       <c r="A13" s="31"/>
       <c r="AN13" s="2"/>
-      <c r="AO13" s="59" t="s">
+      <c r="AO13" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="AP13" s="42"/>
-      <c r="AQ13" s="42"/>
-      <c r="AR13" s="42"/>
-      <c r="AS13" s="42"/>
-      <c r="AT13" s="42"/>
-      <c r="AU13" s="60" t="s">
+      <c r="AP13" s="45"/>
+      <c r="AQ13" s="45"/>
+      <c r="AR13" s="45"/>
+      <c r="AS13" s="45"/>
+      <c r="AT13" s="45"/>
+      <c r="AU13" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="AV13" s="60"/>
-      <c r="AW13" s="60"/>
-      <c r="AX13" s="60"/>
-      <c r="AY13" s="60"/>
-      <c r="AZ13" s="60"/>
-      <c r="BA13" s="60"/>
-      <c r="BB13" s="60"/>
-      <c r="BC13" s="60"/>
-      <c r="BD13" s="60"/>
-      <c r="BE13" s="60"/>
-      <c r="BF13" s="61"/>
+      <c r="AV13" s="53"/>
+      <c r="AW13" s="53"/>
+      <c r="AX13" s="53"/>
+      <c r="AY13" s="53"/>
+      <c r="AZ13" s="53"/>
+      <c r="BA13" s="53"/>
+      <c r="BB13" s="53"/>
+      <c r="BC13" s="53"/>
+      <c r="BD13" s="53"/>
+      <c r="BE13" s="53"/>
+      <c r="BF13" s="54"/>
     </row>
     <row r="14" spans="1:58">
       <c r="A14" s="31"/>
       <c r="AN14" s="2"/>
-      <c r="AO14" s="59"/>
-      <c r="AP14" s="42"/>
-      <c r="AQ14" s="42"/>
-      <c r="AR14" s="42"/>
-      <c r="AS14" s="42"/>
-      <c r="AT14" s="42"/>
-      <c r="AU14" s="60"/>
-      <c r="AV14" s="60"/>
-      <c r="AW14" s="60"/>
-      <c r="AX14" s="60"/>
-      <c r="AY14" s="60"/>
-      <c r="AZ14" s="60"/>
-      <c r="BA14" s="60"/>
-      <c r="BB14" s="60"/>
-      <c r="BC14" s="60"/>
-      <c r="BD14" s="60"/>
-      <c r="BE14" s="60"/>
-      <c r="BF14" s="61"/>
+      <c r="AO14" s="52"/>
+      <c r="AP14" s="45"/>
+      <c r="AQ14" s="45"/>
+      <c r="AR14" s="45"/>
+      <c r="AS14" s="45"/>
+      <c r="AT14" s="45"/>
+      <c r="AU14" s="53"/>
+      <c r="AV14" s="53"/>
+      <c r="AW14" s="53"/>
+      <c r="AX14" s="53"/>
+      <c r="AY14" s="53"/>
+      <c r="AZ14" s="53"/>
+      <c r="BA14" s="53"/>
+      <c r="BB14" s="53"/>
+      <c r="BC14" s="53"/>
+      <c r="BD14" s="53"/>
+      <c r="BE14" s="53"/>
+      <c r="BF14" s="54"/>
     </row>
     <row r="15" spans="1:58">
       <c r="A15" s="31"/>
       <c r="AN15" s="2"/>
-      <c r="AO15" s="59" t="s">
+      <c r="AO15" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AP15" s="42"/>
-      <c r="AQ15" s="42"/>
-      <c r="AR15" s="42"/>
-      <c r="AS15" s="42"/>
-      <c r="AT15" s="42"/>
-      <c r="AU15" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="AV15" s="60"/>
-      <c r="AW15" s="60"/>
-      <c r="AX15" s="60"/>
-      <c r="AY15" s="60"/>
-      <c r="AZ15" s="60"/>
-      <c r="BA15" s="60"/>
-      <c r="BB15" s="60"/>
-      <c r="BC15" s="60"/>
-      <c r="BD15" s="60"/>
-      <c r="BE15" s="60"/>
-      <c r="BF15" s="61"/>
+      <c r="AP15" s="45"/>
+      <c r="AQ15" s="45"/>
+      <c r="AR15" s="45"/>
+      <c r="AS15" s="45"/>
+      <c r="AT15" s="45"/>
+      <c r="AU15" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV15" s="53"/>
+      <c r="AW15" s="53"/>
+      <c r="AX15" s="53"/>
+      <c r="AY15" s="53"/>
+      <c r="AZ15" s="53"/>
+      <c r="BA15" s="53"/>
+      <c r="BB15" s="53"/>
+      <c r="BC15" s="53"/>
+      <c r="BD15" s="53"/>
+      <c r="BE15" s="53"/>
+      <c r="BF15" s="54"/>
     </row>
     <row r="16" spans="1:58">
       <c r="A16" s="31"/>
       <c r="AN16" s="2"/>
-      <c r="AO16" s="59"/>
-      <c r="AP16" s="42"/>
-      <c r="AQ16" s="42"/>
-      <c r="AR16" s="42"/>
-      <c r="AS16" s="42"/>
-      <c r="AT16" s="42"/>
-      <c r="AU16" s="60"/>
-      <c r="AV16" s="60"/>
-      <c r="AW16" s="60"/>
-      <c r="AX16" s="60"/>
-      <c r="AY16" s="60"/>
-      <c r="AZ16" s="60"/>
-      <c r="BA16" s="60"/>
-      <c r="BB16" s="60"/>
-      <c r="BC16" s="60"/>
-      <c r="BD16" s="60"/>
-      <c r="BE16" s="60"/>
-      <c r="BF16" s="61"/>
+      <c r="AO16" s="52"/>
+      <c r="AP16" s="45"/>
+      <c r="AQ16" s="45"/>
+      <c r="AR16" s="45"/>
+      <c r="AS16" s="45"/>
+      <c r="AT16" s="45"/>
+      <c r="AU16" s="53"/>
+      <c r="AV16" s="53"/>
+      <c r="AW16" s="53"/>
+      <c r="AX16" s="53"/>
+      <c r="AY16" s="53"/>
+      <c r="AZ16" s="53"/>
+      <c r="BA16" s="53"/>
+      <c r="BB16" s="53"/>
+      <c r="BC16" s="53"/>
+      <c r="BD16" s="53"/>
+      <c r="BE16" s="53"/>
+      <c r="BF16" s="54"/>
     </row>
     <row r="17" spans="1:58">
       <c r="A17" s="31"/>
       <c r="AN17" s="2"/>
-      <c r="AO17" s="59" t="s">
+      <c r="AO17" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="AP17" s="42"/>
-      <c r="AQ17" s="42"/>
-      <c r="AR17" s="42"/>
-      <c r="AS17" s="42"/>
-      <c r="AT17" s="42"/>
-      <c r="AU17" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="AV17" s="60"/>
-      <c r="AW17" s="60"/>
-      <c r="AX17" s="60"/>
-      <c r="AY17" s="60"/>
-      <c r="AZ17" s="60"/>
-      <c r="BA17" s="60"/>
-      <c r="BB17" s="60"/>
-      <c r="BC17" s="60"/>
-      <c r="BD17" s="60"/>
-      <c r="BE17" s="60"/>
-      <c r="BF17" s="61"/>
+      <c r="AP17" s="45"/>
+      <c r="AQ17" s="45"/>
+      <c r="AR17" s="45"/>
+      <c r="AS17" s="45"/>
+      <c r="AT17" s="45"/>
+      <c r="AU17" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="AV17" s="53"/>
+      <c r="AW17" s="53"/>
+      <c r="AX17" s="53"/>
+      <c r="AY17" s="53"/>
+      <c r="AZ17" s="53"/>
+      <c r="BA17" s="53"/>
+      <c r="BB17" s="53"/>
+      <c r="BC17" s="53"/>
+      <c r="BD17" s="53"/>
+      <c r="BE17" s="53"/>
+      <c r="BF17" s="54"/>
     </row>
     <row r="18" spans="1:58">
       <c r="A18" s="31"/>
       <c r="AN18" s="2"/>
-      <c r="AO18" s="59"/>
-      <c r="AP18" s="42"/>
-      <c r="AQ18" s="42"/>
-      <c r="AR18" s="42"/>
-      <c r="AS18" s="42"/>
-      <c r="AT18" s="42"/>
-      <c r="AU18" s="60"/>
-      <c r="AV18" s="60"/>
-      <c r="AW18" s="60"/>
-      <c r="AX18" s="60"/>
-      <c r="AY18" s="60"/>
-      <c r="AZ18" s="60"/>
-      <c r="BA18" s="60"/>
-      <c r="BB18" s="60"/>
-      <c r="BC18" s="60"/>
-      <c r="BD18" s="60"/>
-      <c r="BE18" s="60"/>
-      <c r="BF18" s="61"/>
+      <c r="AO18" s="52"/>
+      <c r="AP18" s="45"/>
+      <c r="AQ18" s="45"/>
+      <c r="AR18" s="45"/>
+      <c r="AS18" s="45"/>
+      <c r="AT18" s="45"/>
+      <c r="AU18" s="53"/>
+      <c r="AV18" s="53"/>
+      <c r="AW18" s="53"/>
+      <c r="AX18" s="53"/>
+      <c r="AY18" s="53"/>
+      <c r="AZ18" s="53"/>
+      <c r="BA18" s="53"/>
+      <c r="BB18" s="53"/>
+      <c r="BC18" s="53"/>
+      <c r="BD18" s="53"/>
+      <c r="BE18" s="53"/>
+      <c r="BF18" s="54"/>
     </row>
     <row r="19" spans="1:58">
       <c r="A19" s="31"/>
       <c r="AN19" s="2"/>
-      <c r="AO19" s="59"/>
-      <c r="AP19" s="42"/>
-      <c r="AQ19" s="42"/>
-      <c r="AR19" s="42"/>
-      <c r="AS19" s="42"/>
-      <c r="AT19" s="42"/>
-      <c r="AU19" s="60"/>
-      <c r="AV19" s="60"/>
-      <c r="AW19" s="60"/>
-      <c r="AX19" s="60"/>
-      <c r="AY19" s="60"/>
-      <c r="AZ19" s="60"/>
-      <c r="BA19" s="60"/>
-      <c r="BB19" s="60"/>
-      <c r="BC19" s="60"/>
-      <c r="BD19" s="60"/>
-      <c r="BE19" s="60"/>
-      <c r="BF19" s="61"/>
+      <c r="AO19" s="52"/>
+      <c r="AP19" s="45"/>
+      <c r="AQ19" s="45"/>
+      <c r="AR19" s="45"/>
+      <c r="AS19" s="45"/>
+      <c r="AT19" s="45"/>
+      <c r="AU19" s="53"/>
+      <c r="AV19" s="53"/>
+      <c r="AW19" s="53"/>
+      <c r="AX19" s="53"/>
+      <c r="AY19" s="53"/>
+      <c r="AZ19" s="53"/>
+      <c r="BA19" s="53"/>
+      <c r="BB19" s="53"/>
+      <c r="BC19" s="53"/>
+      <c r="BD19" s="53"/>
+      <c r="BE19" s="53"/>
+      <c r="BF19" s="54"/>
     </row>
     <row r="20" spans="1:58">
       <c r="A20" s="31"/>
       <c r="AN20" s="2"/>
-      <c r="AO20" s="59"/>
-      <c r="AP20" s="42"/>
-      <c r="AQ20" s="42"/>
-      <c r="AR20" s="42"/>
-      <c r="AS20" s="42"/>
-      <c r="AT20" s="42"/>
-      <c r="AU20" s="60"/>
-      <c r="AV20" s="60"/>
-      <c r="AW20" s="60"/>
-      <c r="AX20" s="60"/>
-      <c r="AY20" s="60"/>
-      <c r="AZ20" s="60"/>
-      <c r="BA20" s="60"/>
-      <c r="BB20" s="60"/>
-      <c r="BC20" s="60"/>
-      <c r="BD20" s="60"/>
-      <c r="BE20" s="60"/>
-      <c r="BF20" s="61"/>
+      <c r="AO20" s="52"/>
+      <c r="AP20" s="45"/>
+      <c r="AQ20" s="45"/>
+      <c r="AR20" s="45"/>
+      <c r="AS20" s="45"/>
+      <c r="AT20" s="45"/>
+      <c r="AU20" s="53"/>
+      <c r="AV20" s="53"/>
+      <c r="AW20" s="53"/>
+      <c r="AX20" s="53"/>
+      <c r="AY20" s="53"/>
+      <c r="AZ20" s="53"/>
+      <c r="BA20" s="53"/>
+      <c r="BB20" s="53"/>
+      <c r="BC20" s="53"/>
+      <c r="BD20" s="53"/>
+      <c r="BE20" s="53"/>
+      <c r="BF20" s="54"/>
     </row>
     <row r="21" spans="1:58">
       <c r="A21" s="31"/>
       <c r="AN21" s="2"/>
-      <c r="AO21" s="59"/>
-      <c r="AP21" s="42"/>
-      <c r="AQ21" s="42"/>
-      <c r="AR21" s="42"/>
-      <c r="AS21" s="42"/>
-      <c r="AT21" s="42"/>
-      <c r="AU21" s="60"/>
-      <c r="AV21" s="60"/>
-      <c r="AW21" s="60"/>
-      <c r="AX21" s="60"/>
-      <c r="AY21" s="60"/>
-      <c r="AZ21" s="60"/>
-      <c r="BA21" s="60"/>
-      <c r="BB21" s="60"/>
-      <c r="BC21" s="60"/>
-      <c r="BD21" s="60"/>
-      <c r="BE21" s="60"/>
-      <c r="BF21" s="61"/>
+      <c r="AO21" s="52"/>
+      <c r="AP21" s="45"/>
+      <c r="AQ21" s="45"/>
+      <c r="AR21" s="45"/>
+      <c r="AS21" s="45"/>
+      <c r="AT21" s="45"/>
+      <c r="AU21" s="53"/>
+      <c r="AV21" s="53"/>
+      <c r="AW21" s="53"/>
+      <c r="AX21" s="53"/>
+      <c r="AY21" s="53"/>
+      <c r="AZ21" s="53"/>
+      <c r="BA21" s="53"/>
+      <c r="BB21" s="53"/>
+      <c r="BC21" s="53"/>
+      <c r="BD21" s="53"/>
+      <c r="BE21" s="53"/>
+      <c r="BF21" s="54"/>
     </row>
     <row r="22" spans="1:58">
       <c r="A22" s="31"/>
       <c r="AN22" s="2"/>
-      <c r="AO22" s="59"/>
-      <c r="AP22" s="42"/>
-      <c r="AQ22" s="42"/>
-      <c r="AR22" s="42"/>
-      <c r="AS22" s="42"/>
-      <c r="AT22" s="42"/>
-      <c r="AU22" s="60"/>
-      <c r="AV22" s="60"/>
-      <c r="AW22" s="60"/>
-      <c r="AX22" s="60"/>
-      <c r="AY22" s="60"/>
-      <c r="AZ22" s="60"/>
-      <c r="BA22" s="60"/>
-      <c r="BB22" s="60"/>
-      <c r="BC22" s="60"/>
-      <c r="BD22" s="60"/>
-      <c r="BE22" s="60"/>
-      <c r="BF22" s="61"/>
+      <c r="AO22" s="52"/>
+      <c r="AP22" s="45"/>
+      <c r="AQ22" s="45"/>
+      <c r="AR22" s="45"/>
+      <c r="AS22" s="45"/>
+      <c r="AT22" s="45"/>
+      <c r="AU22" s="53"/>
+      <c r="AV22" s="53"/>
+      <c r="AW22" s="53"/>
+      <c r="AX22" s="53"/>
+      <c r="AY22" s="53"/>
+      <c r="AZ22" s="53"/>
+      <c r="BA22" s="53"/>
+      <c r="BB22" s="53"/>
+      <c r="BC22" s="53"/>
+      <c r="BD22" s="53"/>
+      <c r="BE22" s="53"/>
+      <c r="BF22" s="54"/>
     </row>
     <row r="23" spans="1:58">
       <c r="A23" s="31"/>
       <c r="AN23" s="2"/>
-      <c r="AO23" s="59"/>
-      <c r="AP23" s="42"/>
-      <c r="AQ23" s="42"/>
-      <c r="AR23" s="42"/>
-      <c r="AS23" s="42"/>
-      <c r="AT23" s="42"/>
-      <c r="AU23" s="60"/>
-      <c r="AV23" s="60"/>
-      <c r="AW23" s="60"/>
-      <c r="AX23" s="60"/>
-      <c r="AY23" s="60"/>
-      <c r="AZ23" s="60"/>
-      <c r="BA23" s="60"/>
-      <c r="BB23" s="60"/>
-      <c r="BC23" s="60"/>
-      <c r="BD23" s="60"/>
-      <c r="BE23" s="60"/>
-      <c r="BF23" s="61"/>
+      <c r="AO23" s="52"/>
+      <c r="AP23" s="45"/>
+      <c r="AQ23" s="45"/>
+      <c r="AR23" s="45"/>
+      <c r="AS23" s="45"/>
+      <c r="AT23" s="45"/>
+      <c r="AU23" s="53"/>
+      <c r="AV23" s="53"/>
+      <c r="AW23" s="53"/>
+      <c r="AX23" s="53"/>
+      <c r="AY23" s="53"/>
+      <c r="AZ23" s="53"/>
+      <c r="BA23" s="53"/>
+      <c r="BB23" s="53"/>
+      <c r="BC23" s="53"/>
+      <c r="BD23" s="53"/>
+      <c r="BE23" s="53"/>
+      <c r="BF23" s="54"/>
     </row>
     <row r="24" spans="1:58">
       <c r="A24" s="31"/>
       <c r="AN24" s="2"/>
-      <c r="AO24" s="59"/>
-      <c r="AP24" s="42"/>
-      <c r="AQ24" s="42"/>
-      <c r="AR24" s="42"/>
-      <c r="AS24" s="42"/>
-      <c r="AT24" s="42"/>
-      <c r="AU24" s="60"/>
-      <c r="AV24" s="60"/>
-      <c r="AW24" s="60"/>
-      <c r="AX24" s="60"/>
-      <c r="AY24" s="60"/>
-      <c r="AZ24" s="60"/>
-      <c r="BA24" s="60"/>
-      <c r="BB24" s="60"/>
-      <c r="BC24" s="60"/>
-      <c r="BD24" s="60"/>
-      <c r="BE24" s="60"/>
-      <c r="BF24" s="61"/>
+      <c r="AO24" s="52"/>
+      <c r="AP24" s="45"/>
+      <c r="AQ24" s="45"/>
+      <c r="AR24" s="45"/>
+      <c r="AS24" s="45"/>
+      <c r="AT24" s="45"/>
+      <c r="AU24" s="53"/>
+      <c r="AV24" s="53"/>
+      <c r="AW24" s="53"/>
+      <c r="AX24" s="53"/>
+      <c r="AY24" s="53"/>
+      <c r="AZ24" s="53"/>
+      <c r="BA24" s="53"/>
+      <c r="BB24" s="53"/>
+      <c r="BC24" s="53"/>
+      <c r="BD24" s="53"/>
+      <c r="BE24" s="53"/>
+      <c r="BF24" s="54"/>
     </row>
     <row r="25" spans="1:58">
       <c r="A25" s="31"/>
       <c r="AN25" s="2"/>
-      <c r="AO25" s="59"/>
-      <c r="AP25" s="42"/>
-      <c r="AQ25" s="42"/>
-      <c r="AR25" s="42"/>
-      <c r="AS25" s="42"/>
-      <c r="AT25" s="42"/>
-      <c r="AU25" s="60"/>
-      <c r="AV25" s="60"/>
-      <c r="AW25" s="60"/>
-      <c r="AX25" s="60"/>
-      <c r="AY25" s="60"/>
-      <c r="AZ25" s="60"/>
-      <c r="BA25" s="60"/>
-      <c r="BB25" s="60"/>
-      <c r="BC25" s="60"/>
-      <c r="BD25" s="60"/>
-      <c r="BE25" s="60"/>
-      <c r="BF25" s="61"/>
+      <c r="AO25" s="52"/>
+      <c r="AP25" s="45"/>
+      <c r="AQ25" s="45"/>
+      <c r="AR25" s="45"/>
+      <c r="AS25" s="45"/>
+      <c r="AT25" s="45"/>
+      <c r="AU25" s="53"/>
+      <c r="AV25" s="53"/>
+      <c r="AW25" s="53"/>
+      <c r="AX25" s="53"/>
+      <c r="AY25" s="53"/>
+      <c r="AZ25" s="53"/>
+      <c r="BA25" s="53"/>
+      <c r="BB25" s="53"/>
+      <c r="BC25" s="53"/>
+      <c r="BD25" s="53"/>
+      <c r="BE25" s="53"/>
+      <c r="BF25" s="54"/>
     </row>
     <row r="26" spans="1:58">
       <c r="A26" s="31"/>
       <c r="AN26" s="2"/>
-      <c r="AO26" s="59"/>
-      <c r="AP26" s="42"/>
-      <c r="AQ26" s="42"/>
-      <c r="AR26" s="42"/>
-      <c r="AS26" s="42"/>
-      <c r="AT26" s="42"/>
-      <c r="AU26" s="60"/>
-      <c r="AV26" s="60"/>
-      <c r="AW26" s="60"/>
-      <c r="AX26" s="60"/>
-      <c r="AY26" s="60"/>
-      <c r="AZ26" s="60"/>
-      <c r="BA26" s="60"/>
-      <c r="BB26" s="60"/>
-      <c r="BC26" s="60"/>
-      <c r="BD26" s="60"/>
-      <c r="BE26" s="60"/>
-      <c r="BF26" s="61"/>
+      <c r="AO26" s="52"/>
+      <c r="AP26" s="45"/>
+      <c r="AQ26" s="45"/>
+      <c r="AR26" s="45"/>
+      <c r="AS26" s="45"/>
+      <c r="AT26" s="45"/>
+      <c r="AU26" s="53"/>
+      <c r="AV26" s="53"/>
+      <c r="AW26" s="53"/>
+      <c r="AX26" s="53"/>
+      <c r="AY26" s="53"/>
+      <c r="AZ26" s="53"/>
+      <c r="BA26" s="53"/>
+      <c r="BB26" s="53"/>
+      <c r="BC26" s="53"/>
+      <c r="BD26" s="53"/>
+      <c r="BE26" s="53"/>
+      <c r="BF26" s="54"/>
     </row>
     <row r="27" spans="1:58">
       <c r="A27" s="31"/>
       <c r="AN27" s="2"/>
-      <c r="AO27" s="59"/>
-      <c r="AP27" s="42"/>
-      <c r="AQ27" s="42"/>
-      <c r="AR27" s="42"/>
-      <c r="AS27" s="42"/>
-      <c r="AT27" s="42"/>
-      <c r="AU27" s="60"/>
-      <c r="AV27" s="60"/>
-      <c r="AW27" s="60"/>
-      <c r="AX27" s="60"/>
-      <c r="AY27" s="60"/>
-      <c r="AZ27" s="60"/>
-      <c r="BA27" s="60"/>
-      <c r="BB27" s="60"/>
-      <c r="BC27" s="60"/>
-      <c r="BD27" s="60"/>
-      <c r="BE27" s="60"/>
-      <c r="BF27" s="61"/>
+      <c r="AO27" s="52"/>
+      <c r="AP27" s="45"/>
+      <c r="AQ27" s="45"/>
+      <c r="AR27" s="45"/>
+      <c r="AS27" s="45"/>
+      <c r="AT27" s="45"/>
+      <c r="AU27" s="53"/>
+      <c r="AV27" s="53"/>
+      <c r="AW27" s="53"/>
+      <c r="AX27" s="53"/>
+      <c r="AY27" s="53"/>
+      <c r="AZ27" s="53"/>
+      <c r="BA27" s="53"/>
+      <c r="BB27" s="53"/>
+      <c r="BC27" s="53"/>
+      <c r="BD27" s="53"/>
+      <c r="BE27" s="53"/>
+      <c r="BF27" s="54"/>
     </row>
     <row r="28" spans="1:58">
       <c r="A28" s="31"/>
       <c r="AN28" s="2"/>
-      <c r="AO28" s="59"/>
-      <c r="AP28" s="42"/>
-      <c r="AQ28" s="42"/>
-      <c r="AR28" s="42"/>
-      <c r="AS28" s="42"/>
-      <c r="AT28" s="42"/>
-      <c r="AU28" s="60"/>
-      <c r="AV28" s="60"/>
-      <c r="AW28" s="60"/>
-      <c r="AX28" s="60"/>
-      <c r="AY28" s="60"/>
-      <c r="AZ28" s="60"/>
-      <c r="BA28" s="60"/>
-      <c r="BB28" s="60"/>
-      <c r="BC28" s="60"/>
-      <c r="BD28" s="60"/>
-      <c r="BE28" s="60"/>
-      <c r="BF28" s="61"/>
+      <c r="AO28" s="52"/>
+      <c r="AP28" s="45"/>
+      <c r="AQ28" s="45"/>
+      <c r="AR28" s="45"/>
+      <c r="AS28" s="45"/>
+      <c r="AT28" s="45"/>
+      <c r="AU28" s="53"/>
+      <c r="AV28" s="53"/>
+      <c r="AW28" s="53"/>
+      <c r="AX28" s="53"/>
+      <c r="AY28" s="53"/>
+      <c r="AZ28" s="53"/>
+      <c r="BA28" s="53"/>
+      <c r="BB28" s="53"/>
+      <c r="BC28" s="53"/>
+      <c r="BD28" s="53"/>
+      <c r="BE28" s="53"/>
+      <c r="BF28" s="54"/>
     </row>
     <row r="29" spans="1:58">
       <c r="A29" s="31"/>
       <c r="AN29" s="2"/>
-      <c r="AO29" s="59"/>
-      <c r="AP29" s="42"/>
-      <c r="AQ29" s="42"/>
-      <c r="AR29" s="42"/>
-      <c r="AS29" s="42"/>
-      <c r="AT29" s="42"/>
-      <c r="AU29" s="60"/>
-      <c r="AV29" s="60"/>
-      <c r="AW29" s="60"/>
-      <c r="AX29" s="60"/>
-      <c r="AY29" s="60"/>
-      <c r="AZ29" s="60"/>
-      <c r="BA29" s="60"/>
-      <c r="BB29" s="60"/>
-      <c r="BC29" s="60"/>
-      <c r="BD29" s="60"/>
-      <c r="BE29" s="60"/>
-      <c r="BF29" s="61"/>
+      <c r="AO29" s="52"/>
+      <c r="AP29" s="45"/>
+      <c r="AQ29" s="45"/>
+      <c r="AR29" s="45"/>
+      <c r="AS29" s="45"/>
+      <c r="AT29" s="45"/>
+      <c r="AU29" s="53"/>
+      <c r="AV29" s="53"/>
+      <c r="AW29" s="53"/>
+      <c r="AX29" s="53"/>
+      <c r="AY29" s="53"/>
+      <c r="AZ29" s="53"/>
+      <c r="BA29" s="53"/>
+      <c r="BB29" s="53"/>
+      <c r="BC29" s="53"/>
+      <c r="BD29" s="53"/>
+      <c r="BE29" s="53"/>
+      <c r="BF29" s="54"/>
     </row>
     <row r="30" spans="1:58">
       <c r="A30" s="31"/>
       <c r="AN30" s="2"/>
-      <c r="AO30" s="59"/>
-      <c r="AP30" s="42"/>
-      <c r="AQ30" s="42"/>
-      <c r="AR30" s="42"/>
-      <c r="AS30" s="42"/>
-      <c r="AT30" s="42"/>
-      <c r="AU30" s="60"/>
-      <c r="AV30" s="60"/>
-      <c r="AW30" s="60"/>
-      <c r="AX30" s="60"/>
-      <c r="AY30" s="60"/>
-      <c r="AZ30" s="60"/>
-      <c r="BA30" s="60"/>
-      <c r="BB30" s="60"/>
-      <c r="BC30" s="60"/>
-      <c r="BD30" s="60"/>
-      <c r="BE30" s="60"/>
-      <c r="BF30" s="61"/>
+      <c r="AO30" s="52"/>
+      <c r="AP30" s="45"/>
+      <c r="AQ30" s="45"/>
+      <c r="AR30" s="45"/>
+      <c r="AS30" s="45"/>
+      <c r="AT30" s="45"/>
+      <c r="AU30" s="53"/>
+      <c r="AV30" s="53"/>
+      <c r="AW30" s="53"/>
+      <c r="AX30" s="53"/>
+      <c r="AY30" s="53"/>
+      <c r="AZ30" s="53"/>
+      <c r="BA30" s="53"/>
+      <c r="BB30" s="53"/>
+      <c r="BC30" s="53"/>
+      <c r="BD30" s="53"/>
+      <c r="BE30" s="53"/>
+      <c r="BF30" s="54"/>
     </row>
     <row r="31" spans="1:58">
       <c r="A31" s="31"/>
       <c r="AN31" s="2"/>
-      <c r="AO31" s="59"/>
-      <c r="AP31" s="42"/>
-      <c r="AQ31" s="42"/>
-      <c r="AR31" s="42"/>
-      <c r="AS31" s="42"/>
-      <c r="AT31" s="42"/>
-      <c r="AU31" s="60"/>
-      <c r="AV31" s="60"/>
-      <c r="AW31" s="60"/>
-      <c r="AX31" s="60"/>
-      <c r="AY31" s="60"/>
-      <c r="AZ31" s="60"/>
-      <c r="BA31" s="60"/>
-      <c r="BB31" s="60"/>
-      <c r="BC31" s="60"/>
-      <c r="BD31" s="60"/>
-      <c r="BE31" s="60"/>
-      <c r="BF31" s="61"/>
+      <c r="AO31" s="52"/>
+      <c r="AP31" s="45"/>
+      <c r="AQ31" s="45"/>
+      <c r="AR31" s="45"/>
+      <c r="AS31" s="45"/>
+      <c r="AT31" s="45"/>
+      <c r="AU31" s="53"/>
+      <c r="AV31" s="53"/>
+      <c r="AW31" s="53"/>
+      <c r="AX31" s="53"/>
+      <c r="AY31" s="53"/>
+      <c r="AZ31" s="53"/>
+      <c r="BA31" s="53"/>
+      <c r="BB31" s="53"/>
+      <c r="BC31" s="53"/>
+      <c r="BD31" s="53"/>
+      <c r="BE31" s="53"/>
+      <c r="BF31" s="54"/>
     </row>
     <row r="32" spans="1:58">
       <c r="A32" s="31"/>
       <c r="AN32" s="2"/>
-      <c r="AO32" s="59"/>
-      <c r="AP32" s="42"/>
-      <c r="AQ32" s="42"/>
-      <c r="AR32" s="42"/>
-      <c r="AS32" s="42"/>
-      <c r="AT32" s="42"/>
-      <c r="AU32" s="60"/>
-      <c r="AV32" s="60"/>
-      <c r="AW32" s="60"/>
-      <c r="AX32" s="60"/>
-      <c r="AY32" s="60"/>
-      <c r="AZ32" s="60"/>
-      <c r="BA32" s="60"/>
-      <c r="BB32" s="60"/>
-      <c r="BC32" s="60"/>
-      <c r="BD32" s="60"/>
-      <c r="BE32" s="60"/>
-      <c r="BF32" s="61"/>
+      <c r="AO32" s="52"/>
+      <c r="AP32" s="45"/>
+      <c r="AQ32" s="45"/>
+      <c r="AR32" s="45"/>
+      <c r="AS32" s="45"/>
+      <c r="AT32" s="45"/>
+      <c r="AU32" s="53"/>
+      <c r="AV32" s="53"/>
+      <c r="AW32" s="53"/>
+      <c r="AX32" s="53"/>
+      <c r="AY32" s="53"/>
+      <c r="AZ32" s="53"/>
+      <c r="BA32" s="53"/>
+      <c r="BB32" s="53"/>
+      <c r="BC32" s="53"/>
+      <c r="BD32" s="53"/>
+      <c r="BE32" s="53"/>
+      <c r="BF32" s="54"/>
     </row>
     <row r="33" spans="1:58">
       <c r="A33" s="31"/>
       <c r="AN33" s="2"/>
-      <c r="AO33" s="59"/>
-      <c r="AP33" s="42"/>
-      <c r="AQ33" s="42"/>
-      <c r="AR33" s="42"/>
-      <c r="AS33" s="42"/>
-      <c r="AT33" s="42"/>
-      <c r="AU33" s="60"/>
-      <c r="AV33" s="60"/>
-      <c r="AW33" s="60"/>
-      <c r="AX33" s="60"/>
-      <c r="AY33" s="60"/>
-      <c r="AZ33" s="60"/>
-      <c r="BA33" s="60"/>
-      <c r="BB33" s="60"/>
-      <c r="BC33" s="60"/>
-      <c r="BD33" s="60"/>
-      <c r="BE33" s="60"/>
-      <c r="BF33" s="61"/>
+      <c r="AO33" s="52"/>
+      <c r="AP33" s="45"/>
+      <c r="AQ33" s="45"/>
+      <c r="AR33" s="45"/>
+      <c r="AS33" s="45"/>
+      <c r="AT33" s="45"/>
+      <c r="AU33" s="53"/>
+      <c r="AV33" s="53"/>
+      <c r="AW33" s="53"/>
+      <c r="AX33" s="53"/>
+      <c r="AY33" s="53"/>
+      <c r="AZ33" s="53"/>
+      <c r="BA33" s="53"/>
+      <c r="BB33" s="53"/>
+      <c r="BC33" s="53"/>
+      <c r="BD33" s="53"/>
+      <c r="BE33" s="53"/>
+      <c r="BF33" s="54"/>
     </row>
     <row r="34" spans="1:58">
       <c r="A34" s="31"/>
       <c r="AN34" s="2"/>
-      <c r="AO34" s="59"/>
-      <c r="AP34" s="42"/>
-      <c r="AQ34" s="42"/>
-      <c r="AR34" s="42"/>
-      <c r="AS34" s="42"/>
-      <c r="AT34" s="42"/>
-      <c r="AU34" s="60"/>
-      <c r="AV34" s="60"/>
-      <c r="AW34" s="60"/>
-      <c r="AX34" s="60"/>
-      <c r="AY34" s="60"/>
-      <c r="AZ34" s="60"/>
-      <c r="BA34" s="60"/>
-      <c r="BB34" s="60"/>
-      <c r="BC34" s="60"/>
-      <c r="BD34" s="60"/>
-      <c r="BE34" s="60"/>
-      <c r="BF34" s="61"/>
+      <c r="AO34" s="52"/>
+      <c r="AP34" s="45"/>
+      <c r="AQ34" s="45"/>
+      <c r="AR34" s="45"/>
+      <c r="AS34" s="45"/>
+      <c r="AT34" s="45"/>
+      <c r="AU34" s="53"/>
+      <c r="AV34" s="53"/>
+      <c r="AW34" s="53"/>
+      <c r="AX34" s="53"/>
+      <c r="AY34" s="53"/>
+      <c r="AZ34" s="53"/>
+      <c r="BA34" s="53"/>
+      <c r="BB34" s="53"/>
+      <c r="BC34" s="53"/>
+      <c r="BD34" s="53"/>
+      <c r="BE34" s="53"/>
+      <c r="BF34" s="54"/>
     </row>
     <row r="35" spans="1:58">
       <c r="A35" s="31"/>
       <c r="AN35" s="2"/>
-      <c r="AO35" s="59"/>
-      <c r="AP35" s="42"/>
-      <c r="AQ35" s="42"/>
-      <c r="AR35" s="42"/>
-      <c r="AS35" s="42"/>
-      <c r="AT35" s="42"/>
-      <c r="AU35" s="60"/>
-      <c r="AV35" s="60"/>
-      <c r="AW35" s="60"/>
-      <c r="AX35" s="60"/>
-      <c r="AY35" s="60"/>
-      <c r="AZ35" s="60"/>
-      <c r="BA35" s="60"/>
-      <c r="BB35" s="60"/>
-      <c r="BC35" s="60"/>
-      <c r="BD35" s="60"/>
-      <c r="BE35" s="60"/>
-      <c r="BF35" s="61"/>
+      <c r="AO35" s="52"/>
+      <c r="AP35" s="45"/>
+      <c r="AQ35" s="45"/>
+      <c r="AR35" s="45"/>
+      <c r="AS35" s="45"/>
+      <c r="AT35" s="45"/>
+      <c r="AU35" s="53"/>
+      <c r="AV35" s="53"/>
+      <c r="AW35" s="53"/>
+      <c r="AX35" s="53"/>
+      <c r="AY35" s="53"/>
+      <c r="AZ35" s="53"/>
+      <c r="BA35" s="53"/>
+      <c r="BB35" s="53"/>
+      <c r="BC35" s="53"/>
+      <c r="BD35" s="53"/>
+      <c r="BE35" s="53"/>
+      <c r="BF35" s="54"/>
     </row>
     <row r="36" spans="1:58">
       <c r="A36" s="31"/>
       <c r="AN36" s="2"/>
-      <c r="AO36" s="59"/>
-      <c r="AP36" s="42"/>
-      <c r="AQ36" s="42"/>
-      <c r="AR36" s="42"/>
-      <c r="AS36" s="42"/>
-      <c r="AT36" s="42"/>
-      <c r="AU36" s="60"/>
-      <c r="AV36" s="60"/>
-      <c r="AW36" s="60"/>
-      <c r="AX36" s="60"/>
-      <c r="AY36" s="60"/>
-      <c r="AZ36" s="60"/>
-      <c r="BA36" s="60"/>
-      <c r="BB36" s="60"/>
-      <c r="BC36" s="60"/>
-      <c r="BD36" s="60"/>
-      <c r="BE36" s="60"/>
-      <c r="BF36" s="61"/>
+      <c r="AO36" s="52"/>
+      <c r="AP36" s="45"/>
+      <c r="AQ36" s="45"/>
+      <c r="AR36" s="45"/>
+      <c r="AS36" s="45"/>
+      <c r="AT36" s="45"/>
+      <c r="AU36" s="53"/>
+      <c r="AV36" s="53"/>
+      <c r="AW36" s="53"/>
+      <c r="AX36" s="53"/>
+      <c r="AY36" s="53"/>
+      <c r="AZ36" s="53"/>
+      <c r="BA36" s="53"/>
+      <c r="BB36" s="53"/>
+      <c r="BC36" s="53"/>
+      <c r="BD36" s="53"/>
+      <c r="BE36" s="53"/>
+      <c r="BF36" s="54"/>
     </row>
     <row r="37" spans="1:58">
       <c r="A37" s="31"/>
@@ -3412,24 +3422,19 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="AO31:AT32"/>
-    <mergeCell ref="AU31:BF32"/>
-    <mergeCell ref="AO33:AT34"/>
-    <mergeCell ref="AU33:BF34"/>
-    <mergeCell ref="AO35:AT36"/>
-    <mergeCell ref="AU35:BF36"/>
-    <mergeCell ref="AO25:AT26"/>
-    <mergeCell ref="AU25:BF26"/>
-    <mergeCell ref="AO27:AT28"/>
-    <mergeCell ref="AU27:BF28"/>
-    <mergeCell ref="AO29:AT30"/>
-    <mergeCell ref="AU29:BF30"/>
-    <mergeCell ref="AO19:AT20"/>
-    <mergeCell ref="AU19:BF20"/>
-    <mergeCell ref="AO21:AT22"/>
-    <mergeCell ref="AU21:BF22"/>
-    <mergeCell ref="AO23:AT24"/>
-    <mergeCell ref="AU23:BF24"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="U1:AI1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AO1:AU1"/>
+    <mergeCell ref="BA1:BF1"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="U2:AI2"/>
+    <mergeCell ref="AJ2:AN2"/>
+    <mergeCell ref="AO2:AU2"/>
+    <mergeCell ref="AV2:AZ2"/>
+    <mergeCell ref="BA2:BF2"/>
+    <mergeCell ref="AV1:AZ1"/>
     <mergeCell ref="AO15:AT16"/>
     <mergeCell ref="AU15:BF16"/>
     <mergeCell ref="AO17:AT18"/>
@@ -3446,19 +3451,24 @@
     <mergeCell ref="AO7:AT8"/>
     <mergeCell ref="AO11:AT12"/>
     <mergeCell ref="AO9:AT10"/>
-    <mergeCell ref="BA1:BF1"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="U2:AI2"/>
-    <mergeCell ref="AJ2:AN2"/>
-    <mergeCell ref="AO2:AU2"/>
-    <mergeCell ref="AV2:AZ2"/>
-    <mergeCell ref="BA2:BF2"/>
-    <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="U1:AI1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AO1:AU1"/>
+    <mergeCell ref="AO19:AT20"/>
+    <mergeCell ref="AU19:BF20"/>
+    <mergeCell ref="AO21:AT22"/>
+    <mergeCell ref="AU21:BF22"/>
+    <mergeCell ref="AO23:AT24"/>
+    <mergeCell ref="AU23:BF24"/>
+    <mergeCell ref="AO25:AT26"/>
+    <mergeCell ref="AU25:BF26"/>
+    <mergeCell ref="AO27:AT28"/>
+    <mergeCell ref="AU27:BF28"/>
+    <mergeCell ref="AO29:AT30"/>
+    <mergeCell ref="AU29:BF30"/>
+    <mergeCell ref="AO31:AT32"/>
+    <mergeCell ref="AU31:BF32"/>
+    <mergeCell ref="AO33:AT34"/>
+    <mergeCell ref="AU33:BF34"/>
+    <mergeCell ref="AO35:AT36"/>
+    <mergeCell ref="AU35:BF36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
